--- a/web/uploads/inven.xlsx
+++ b/web/uploads/inven.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsoft\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsoft\Desktop\inventario\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="PAQUETE PARA MAYORISTAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913" calcMode="autoNoTable"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="435">
   <si>
     <t>lovlub essence 30g.</t>
   </si>
@@ -278,9 +279,6 @@
     <t xml:space="preserve">edible undies </t>
   </si>
   <si>
-    <t>cajetilla marlboro</t>
-  </si>
-  <si>
     <t>5MPEINETA</t>
   </si>
   <si>
@@ -413,9 +411,6 @@
     <t>marcia double side stroker</t>
   </si>
   <si>
-    <t>vibrador varios modelos</t>
-  </si>
-  <si>
     <t>penis pump men</t>
   </si>
   <si>
@@ -515,15 +510,9 @@
     <t>A45004</t>
   </si>
   <si>
-    <t>Anillo 3 piezas china</t>
-  </si>
-  <si>
     <t xml:space="preserve">prudence caribbean mix 5 </t>
   </si>
   <si>
-    <t>lovlub 5 sobres</t>
-  </si>
-  <si>
     <t>prudence mix 5</t>
   </si>
   <si>
@@ -782,9 +771,6 @@
     <t>silicone tri-snap ball spreader</t>
   </si>
   <si>
-    <t>silicone tri-snap erection ring</t>
-  </si>
-  <si>
     <t>real feel deluxe 8"</t>
   </si>
   <si>
@@ -1244,9 +1230,6 @@
     <t>d08010</t>
   </si>
   <si>
-    <t>latigo estoperol</t>
-  </si>
-  <si>
     <t>arnes femenino</t>
   </si>
   <si>
@@ -1320,6 +1303,33 @@
   </si>
   <si>
     <t>v cream hiper sense</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>COSTO MAYOREO</t>
+  </si>
+  <si>
+    <t>PRECIO SUGERIDO</t>
+  </si>
+  <si>
+    <t>cajetilla cigarros marlboro</t>
+  </si>
+  <si>
+    <t>lovlub 5 sobres /caja</t>
+  </si>
+  <si>
+    <t>EXPERIENCE LIFE</t>
+  </si>
+  <si>
+    <t>Anillo 3 piezas silicon</t>
+  </si>
+  <si>
+    <t>latigo con estoperol</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1340,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1345,6 +1355,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1373,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,6 +1436,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1708,8 +1736,8 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,13 +1761,13 @@
       <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16">
+      <c r="C1" s="20">
         <v>21</v>
       </c>
-      <c r="D1" s="16">
+      <c r="D1" s="20">
         <v>60</v>
       </c>
-      <c r="E1" s="16">
+      <c r="E1" s="20">
         <v>30</v>
       </c>
       <c r="F1" s="4">
@@ -1765,13 +1793,13 @@
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="20">
         <v>21</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="20">
         <v>60</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="20">
         <v>30</v>
       </c>
       <c r="F2" s="4">
@@ -1797,13 +1825,13 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="20">
         <v>21</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="20">
         <v>60</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="20">
         <v>30</v>
       </c>
       <c r="F3" s="4">
@@ -1829,13 +1857,13 @@
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="20">
         <v>21</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="20">
         <v>60</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="20">
         <v>30</v>
       </c>
       <c r="F4" s="4">
@@ -1861,13 +1889,13 @@
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="20">
         <v>21</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="20">
         <v>60</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="20">
         <v>30</v>
       </c>
       <c r="F5" s="4">
@@ -1893,13 +1921,13 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="20">
         <v>21</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="20">
         <v>60</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="20">
         <v>30</v>
       </c>
       <c r="F6" s="4">
@@ -1925,13 +1953,13 @@
       <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="20">
         <v>21</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="20">
         <v>60</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="20">
         <v>30</v>
       </c>
       <c r="F7" s="4">
@@ -1957,13 +1985,13 @@
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="20">
         <v>21</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="20">
         <v>60</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="20">
         <v>30</v>
       </c>
       <c r="F8" s="4">
@@ -1989,13 +2017,13 @@
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="20">
         <v>38.9</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="20">
         <v>100</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="20">
         <v>55</v>
       </c>
       <c r="F9" s="4">
@@ -2021,13 +2049,13 @@
       <c r="B10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="20">
         <v>38.9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="20">
         <v>100</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="20">
         <v>55</v>
       </c>
       <c r="F10" s="4">
@@ -2053,13 +2081,13 @@
       <c r="B11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="20">
         <v>38.9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="20">
         <v>100</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="20">
         <v>55</v>
       </c>
       <c r="F11" s="4">
@@ -2085,13 +2113,13 @@
       <c r="B12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="20">
         <v>38.9</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="20">
         <v>100</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="20">
         <v>55</v>
       </c>
       <c r="F12" s="4">
@@ -2117,13 +2145,13 @@
       <c r="B13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="20">
         <v>38.9</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="20">
         <v>100</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="20">
         <v>55</v>
       </c>
       <c r="F13" s="4">
@@ -2149,13 +2177,13 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="20">
         <v>38.9</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="20">
         <v>100</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="20">
         <v>55</v>
       </c>
       <c r="F14" s="4">
@@ -2171,7 +2199,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2181,13 +2209,13 @@
       <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="20">
         <v>38.9</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="20">
         <v>100</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="20">
         <v>55</v>
       </c>
       <c r="F15" s="4">
@@ -2203,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="J15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2213,13 +2241,13 @@
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="20">
         <v>38.9</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="20">
         <v>100</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="20">
         <v>55</v>
       </c>
       <c r="F16" s="4">
@@ -2245,13 +2273,13 @@
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="20">
         <v>197</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="20">
         <v>450</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="20">
         <v>254</v>
       </c>
       <c r="F17" s="4">
@@ -2267,7 +2295,7 @@
         <v>2</v>
       </c>
       <c r="J17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -2277,13 +2305,13 @@
       <c r="B18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="20">
         <v>53.3</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="20">
         <v>75</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="20">
         <v>135</v>
       </c>
       <c r="F18" s="4">
@@ -2299,7 +2327,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2309,13 +2337,13 @@
       <c r="B19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="20">
         <v>53.3</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="20">
         <v>75</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="20">
         <v>135</v>
       </c>
       <c r="F19" s="4">
@@ -2325,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="4">
         <v>2</v>
@@ -2341,13 +2369,13 @@
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="20">
         <v>53.3</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="20">
         <v>75</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="20">
         <v>135</v>
       </c>
       <c r="F20" s="4">
@@ -2357,7 +2385,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I20" s="4">
         <v>2</v>
@@ -2373,13 +2401,13 @@
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="20">
         <v>7.2</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="20">
         <v>12</v>
       </c>
       <c r="F21" s="4">
@@ -2389,7 +2417,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I21" s="4">
         <v>2</v>
@@ -2405,13 +2433,13 @@
       <c r="B22" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="20">
         <v>7.2</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="20">
         <v>12</v>
       </c>
       <c r="F22" s="4">
@@ -2421,7 +2449,7 @@
         <v>1</v>
       </c>
       <c r="H22" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I22" s="4">
         <v>2</v>
@@ -2437,13 +2465,13 @@
       <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="20">
         <v>7.2</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="20">
         <v>12</v>
       </c>
       <c r="F23" s="4">
@@ -2453,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I23" s="4">
         <v>2</v>
@@ -2469,13 +2497,13 @@
       <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="20">
         <v>7.2</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="20">
         <v>12</v>
       </c>
       <c r="F24" s="4">
@@ -2485,13 +2513,13 @@
         <v>1</v>
       </c>
       <c r="H24" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I24" s="4">
         <v>2</v>
       </c>
       <c r="J24" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2501,13 +2529,13 @@
       <c r="B25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="20">
         <v>7.2</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="20">
         <v>12</v>
       </c>
       <c r="F25" s="4">
@@ -2517,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="4">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I25" s="4">
         <v>2</v>
@@ -2533,13 +2561,13 @@
       <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="20">
         <v>7.2</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="20">
         <v>12</v>
       </c>
       <c r="F26" s="4">
@@ -2549,7 +2577,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I26" s="4">
         <v>2</v>
@@ -2565,13 +2593,13 @@
       <c r="B27" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="20">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D27" s="20">
         <v>7.2</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="20">
         <v>12</v>
       </c>
       <c r="F27" s="4">
@@ -2581,7 +2609,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="4">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I27" s="4">
         <v>2</v>
@@ -2597,13 +2625,13 @@
       <c r="B28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="20">
         <v>42.9</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="20">
         <v>100</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="20">
         <v>60</v>
       </c>
       <c r="F28" s="4">
@@ -2613,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I28" s="4">
         <v>2</v>
@@ -2627,15 +2655,15 @@
         <v>1573</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C29" s="16">
+        <v>425</v>
+      </c>
+      <c r="C29" s="20">
         <v>42.9</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D29" s="20">
         <v>100</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="20">
         <v>60</v>
       </c>
       <c r="F29" s="4">
@@ -2645,13 +2673,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I29" s="4">
         <v>2</v>
       </c>
       <c r="J29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2661,13 +2689,13 @@
       <c r="B30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="20">
         <v>35</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D30" s="20">
         <v>100</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="20">
         <v>42</v>
       </c>
       <c r="F30" s="4">
@@ -2683,7 +2711,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2691,15 +2719,15 @@
         <v>7501058799029</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="C31" s="16">
+        <v>332</v>
+      </c>
+      <c r="C31" s="20">
         <v>35</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="20">
         <v>100</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="20">
         <v>42</v>
       </c>
       <c r="F31" s="4">
@@ -2715,20 +2743,20 @@
         <v>2</v>
       </c>
       <c r="J31" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="20">
         <v>16.7</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="20">
         <v>50</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="20">
         <v>25</v>
       </c>
       <c r="F32" s="4">
@@ -2751,13 +2779,13 @@
       <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="20">
         <v>155</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="20">
         <v>380</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="20">
         <v>220</v>
       </c>
       <c r="F33" s="4">
@@ -2780,13 +2808,13 @@
       <c r="B34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="20">
         <v>135</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="20">
         <v>325</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="20">
         <v>195</v>
       </c>
       <c r="F34" s="4">
@@ -2809,13 +2837,13 @@
       <c r="B35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="20">
         <v>240</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="20">
         <v>550</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="20">
         <v>330</v>
       </c>
       <c r="F35" s="4">
@@ -2835,13 +2863,13 @@
       <c r="B36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="20">
         <v>14</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="20">
         <v>35</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="20">
         <v>21</v>
       </c>
       <c r="F36" s="4">
@@ -2864,13 +2892,13 @@
       <c r="B37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="20">
         <v>3.49</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="20">
         <v>10</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="20">
         <v>6</v>
       </c>
       <c r="F37" s="4">
@@ -2886,20 +2914,20 @@
         <v>2</v>
       </c>
       <c r="J37" s="1">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="20">
         <v>6</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="20">
         <v>15</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="20">
         <v>9</v>
       </c>
       <c r="F38" s="4">
@@ -2909,7 +2937,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="4">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I38" s="4">
         <v>2</v>
@@ -2922,13 +2950,13 @@
       <c r="B39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="20">
         <v>5.5</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="20">
         <v>20</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="20">
         <v>12</v>
       </c>
       <c r="F39" s="4">
@@ -2944,7 +2972,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
@@ -2954,13 +2982,13 @@
       <c r="B40" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="20">
         <v>32</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="20">
         <v>75</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="20">
         <v>44.5</v>
       </c>
       <c r="F40" s="4">
@@ -2986,13 +3014,13 @@
       <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="20">
         <v>32</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="20">
         <v>75</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="20">
         <v>44.5</v>
       </c>
       <c r="F41" s="4">
@@ -3002,13 +3030,13 @@
         <v>1</v>
       </c>
       <c r="H41" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I41" s="4">
         <v>2</v>
       </c>
       <c r="J41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -3018,13 +3046,13 @@
       <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="20">
         <v>32</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="20">
         <v>75</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="20">
         <v>44.5</v>
       </c>
       <c r="F42" s="4">
@@ -3034,7 +3062,7 @@
         <v>1</v>
       </c>
       <c r="H42" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4">
         <v>2</v>
@@ -3050,13 +3078,13 @@
       <c r="B43" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="20">
         <v>32</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="20">
         <v>75</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="20">
         <v>44.5</v>
       </c>
       <c r="F43" s="4">
@@ -3082,13 +3110,13 @@
       <c r="B44" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="20">
         <v>32</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="20">
         <v>75</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="20">
         <v>44.5</v>
       </c>
       <c r="F44" s="4">
@@ -3112,15 +3140,15 @@
         <v>7503016608374</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="C45" s="16">
+        <v>346</v>
+      </c>
+      <c r="C45" s="20">
         <v>32</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="20">
         <v>75</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="20">
         <v>44.5</v>
       </c>
       <c r="F45" s="4">
@@ -3146,13 +3174,13 @@
       <c r="B46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="20">
         <v>32</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="20">
         <v>75</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="20">
         <v>44.5</v>
       </c>
       <c r="F46" s="4">
@@ -3162,26 +3190,26 @@
         <v>1</v>
       </c>
       <c r="H46" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I46" s="4">
         <v>2</v>
       </c>
       <c r="J46" s="1">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="20">
         <v>14</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="20">
         <v>40</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="20">
         <v>20</v>
       </c>
       <c r="F47" s="4">
@@ -3191,26 +3219,26 @@
         <v>1</v>
       </c>
       <c r="H47" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I47" s="4">
         <v>2</v>
       </c>
       <c r="J47" s="1">
-        <v>2</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="20">
         <v>14</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="20">
         <v>40</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="20">
         <v>20</v>
       </c>
       <c r="F48" s="4">
@@ -3236,13 +3264,13 @@
       <c r="B49" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="20">
         <v>100</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="20">
         <v>230</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="20">
         <v>139</v>
       </c>
       <c r="F49" s="4">
@@ -3252,26 +3280,26 @@
         <v>1</v>
       </c>
       <c r="H49" s="4">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I49" s="4">
         <v>2</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="20">
         <v>45</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="20">
         <v>115</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="20">
         <v>69</v>
       </c>
       <c r="F50" s="4">
@@ -3297,13 +3325,13 @@
       <c r="B51" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="20">
         <v>137</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="20">
         <v>450</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="20">
         <v>200</v>
       </c>
       <c r="F51" s="4">
@@ -3326,13 +3354,13 @@
       <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="20">
         <v>36</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="20">
         <v>85</v>
       </c>
-      <c r="E52" s="16">
+      <c r="E52" s="20">
         <v>50</v>
       </c>
       <c r="F52" s="4">
@@ -3358,13 +3386,13 @@
       <c r="B53" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="20">
         <v>10.35</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="20">
         <v>24</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="20">
         <v>14.5</v>
       </c>
       <c r="F53" s="4">
@@ -3390,13 +3418,13 @@
       <c r="B54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="20">
         <v>48</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="20">
         <v>120</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="20">
         <v>72</v>
       </c>
       <c r="F54" s="4">
@@ -3419,13 +3447,13 @@
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="20">
         <v>6.42</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="20">
         <v>15</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="20">
         <v>8.9</v>
       </c>
       <c r="F55" s="4">
@@ -3448,13 +3476,13 @@
       <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="20">
         <v>10</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="20">
         <v>25</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="20">
         <v>15</v>
       </c>
       <c r="F56" s="4">
@@ -3480,13 +3508,13 @@
       <c r="B57" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="20">
         <v>15.4</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="20">
         <v>70</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="20">
         <v>35</v>
       </c>
       <c r="F57" s="4">
@@ -3512,13 +3540,13 @@
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="20">
         <v>17.55</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="20">
         <v>85</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="20">
         <v>45</v>
       </c>
       <c r="F58" s="4">
@@ -3528,13 +3556,13 @@
         <v>1</v>
       </c>
       <c r="H58" s="4">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I58" s="4">
         <v>2</v>
       </c>
       <c r="J58" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -3544,13 +3572,13 @@
       <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="20">
         <v>20.3</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="20">
         <v>100</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="20">
         <v>45</v>
       </c>
       <c r="F59" s="4">
@@ -3576,13 +3604,13 @@
       <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="20">
         <v>36</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="20">
         <v>100</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="20">
         <v>55</v>
       </c>
       <c r="F60" s="4">
@@ -3592,13 +3620,13 @@
         <v>1</v>
       </c>
       <c r="H60" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I60" s="4">
         <v>2</v>
       </c>
       <c r="J60" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -3608,13 +3636,13 @@
       <c r="B61" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="20">
         <v>30</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="20">
         <v>100</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="20">
         <v>50</v>
       </c>
       <c r="F61" s="4">
@@ -3624,13 +3652,13 @@
         <v>1</v>
       </c>
       <c r="H61" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" s="4">
         <v>2</v>
       </c>
       <c r="J61" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
@@ -3640,13 +3668,13 @@
       <c r="B62" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="20">
         <v>51.05</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="20">
         <v>120</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="20">
         <v>72</v>
       </c>
       <c r="F62" s="4">
@@ -3672,13 +3700,13 @@
       <c r="B63" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="20">
         <v>42.67</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="20">
         <v>100</v>
       </c>
-      <c r="E63" s="16">
+      <c r="E63" s="20">
         <v>60</v>
       </c>
       <c r="F63" s="4">
@@ -3704,13 +3732,13 @@
       <c r="B64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="20">
         <v>100</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="20">
         <v>250</v>
       </c>
-      <c r="E64" s="16">
+      <c r="E64" s="20">
         <v>148</v>
       </c>
       <c r="F64" s="4">
@@ -3736,13 +3764,13 @@
       <c r="B65" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="20">
         <v>100</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="20">
         <v>250</v>
       </c>
-      <c r="E65" s="16">
+      <c r="E65" s="20">
         <v>148</v>
       </c>
       <c r="F65" s="4">
@@ -3768,13 +3796,13 @@
       <c r="B66" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="20">
         <v>70</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="20">
         <v>160</v>
       </c>
-      <c r="E66" s="16">
+      <c r="E66" s="20">
         <v>96</v>
       </c>
       <c r="F66" s="4">
@@ -3800,13 +3828,13 @@
       <c r="B67" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="20">
         <v>57</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="20">
         <v>130</v>
       </c>
-      <c r="E67" s="16">
+      <c r="E67" s="20">
         <v>85</v>
       </c>
       <c r="F67" s="4">
@@ -3822,7 +3850,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3832,13 +3860,13 @@
       <c r="B68" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="20">
         <v>10</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="20">
         <v>40</v>
       </c>
-      <c r="E68" s="16">
+      <c r="E68" s="20">
         <v>30</v>
       </c>
       <c r="F68" s="4">
@@ -3861,13 +3889,13 @@
       <c r="B69" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="20">
         <v>35</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="20">
         <v>85</v>
       </c>
-      <c r="E69" s="16">
+      <c r="E69" s="20">
         <v>48</v>
       </c>
       <c r="F69" s="4">
@@ -3893,13 +3921,13 @@
       <c r="B70" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="20">
         <v>219</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="20">
         <v>300</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="20">
         <v>300</v>
       </c>
       <c r="F70" s="4">
@@ -3925,13 +3953,13 @@
       <c r="B71" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="20">
         <v>59.94</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="20">
         <v>150</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="20">
         <v>90</v>
       </c>
       <c r="F71" s="4">
@@ -3954,13 +3982,13 @@
       <c r="B72" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C72" s="16">
+      <c r="C72" s="20">
         <v>10</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D72" s="20">
         <v>25</v>
       </c>
-      <c r="E72" s="16">
+      <c r="E72" s="20">
         <v>14</v>
       </c>
       <c r="F72" s="4">
@@ -3970,13 +3998,13 @@
         <v>1</v>
       </c>
       <c r="H72" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I72" s="4">
         <v>2</v>
       </c>
       <c r="J72" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3986,13 +4014,13 @@
       <c r="B73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C73" s="16">
+      <c r="C73" s="20">
         <v>90</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="20">
         <v>200</v>
       </c>
-      <c r="E73" s="16">
+      <c r="E73" s="20">
         <v>120</v>
       </c>
       <c r="F73" s="4">
@@ -4018,13 +4046,13 @@
       <c r="B74" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C74" s="16">
+      <c r="C74" s="20">
         <v>89</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="20">
         <v>210</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E74" s="20">
         <v>125</v>
       </c>
       <c r="F74" s="4">
@@ -4050,13 +4078,13 @@
       <c r="B75" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C75" s="16">
+      <c r="C75" s="20">
         <v>127</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="20">
         <v>300</v>
       </c>
-      <c r="E75" s="16">
+      <c r="E75" s="20">
         <v>176</v>
       </c>
       <c r="F75" s="4">
@@ -4082,13 +4110,13 @@
       <c r="B76" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C76" s="16">
+      <c r="C76" s="20">
         <v>406</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="20">
         <v>850</v>
       </c>
-      <c r="E76" s="16">
+      <c r="E76" s="20">
         <v>468</v>
       </c>
       <c r="F76" s="4">
@@ -4111,13 +4139,13 @@
       <c r="B77" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C77" s="20">
         <v>7.5</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="20">
         <v>20</v>
       </c>
-      <c r="E77" s="16">
+      <c r="E77" s="20">
         <v>12</v>
       </c>
       <c r="F77" s="4">
@@ -4143,13 +4171,13 @@
       <c r="B78" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C78" s="20">
         <v>23</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="20">
         <v>50</v>
       </c>
-      <c r="E78" s="16">
+      <c r="E78" s="20">
         <v>30</v>
       </c>
       <c r="F78" s="4">
@@ -4175,13 +4203,13 @@
       <c r="B79" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="16">
+      <c r="C79" s="20">
         <v>12</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="20">
         <v>30</v>
       </c>
-      <c r="E79" s="16">
+      <c r="E79" s="20">
         <v>18</v>
       </c>
       <c r="F79" s="4">
@@ -4204,13 +4232,13 @@
       <c r="B80" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C80" s="16">
+      <c r="C80" s="20">
         <v>35</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="20">
         <v>80</v>
       </c>
-      <c r="E80" s="16">
+      <c r="E80" s="20">
         <v>48</v>
       </c>
       <c r="F80" s="4">
@@ -4236,13 +4264,13 @@
       <c r="B81" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C81" s="16">
+      <c r="C81" s="20">
         <v>85</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D81" s="20">
         <v>200</v>
       </c>
-      <c r="E81" s="16">
+      <c r="E81" s="20">
         <v>120</v>
       </c>
       <c r="F81" s="4">
@@ -4266,15 +4294,15 @@
         <v>75001322</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C82" s="16">
+        <v>430</v>
+      </c>
+      <c r="C82" s="20">
         <v>11.99</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="20">
         <v>30</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="20">
         <v>18</v>
       </c>
       <c r="F82" s="4">
@@ -4284,7 +4312,7 @@
         <v>1</v>
       </c>
       <c r="H82" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I82" s="4">
         <v>2</v>
@@ -4295,18 +4323,18 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="16">
+      <c r="C83" s="20">
         <v>14.4</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D83" s="20">
         <v>35</v>
       </c>
-      <c r="E83" s="16">
+      <c r="E83" s="20">
         <v>21</v>
       </c>
       <c r="F83" s="4">
@@ -4330,15 +4358,15 @@
         <v>7506163803036</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C84" s="16">
+        <v>86</v>
+      </c>
+      <c r="C84" s="20">
         <v>7.5</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="20">
         <v>20</v>
       </c>
-      <c r="E84" s="16">
+      <c r="E84" s="20">
         <v>11</v>
       </c>
       <c r="F84" s="4">
@@ -4362,15 +4390,15 @@
         <v>6951286448014</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="16">
+        <v>87</v>
+      </c>
+      <c r="C85" s="20">
         <v>20</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D85" s="20">
         <v>50</v>
       </c>
-      <c r="E85" s="16">
+      <c r="E85" s="20">
         <v>28</v>
       </c>
       <c r="F85" s="4">
@@ -4394,15 +4422,15 @@
         <v>7501751414793</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C86" s="16">
+        <v>88</v>
+      </c>
+      <c r="C86" s="20">
         <v>33</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D86" s="20">
         <v>75</v>
       </c>
-      <c r="E86" s="16">
+      <c r="E86" s="20">
         <v>45</v>
       </c>
       <c r="F86" s="4">
@@ -4423,15 +4451,15 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B87" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C87" s="16">
+        <v>89</v>
+      </c>
+      <c r="C87" s="20">
         <v>20</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D87" s="20">
         <v>50</v>
       </c>
-      <c r="E87" s="16">
+      <c r="E87" s="20">
         <v>30</v>
       </c>
       <c r="F87" s="4">
@@ -4455,15 +4483,15 @@
         <v>9789706277671</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C88" s="16">
+        <v>90</v>
+      </c>
+      <c r="C88" s="20">
         <v>20</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="20">
         <v>60</v>
       </c>
-      <c r="E88" s="16">
+      <c r="E88" s="20">
         <v>36</v>
       </c>
       <c r="F88" s="4">
@@ -4487,15 +4515,15 @@
         <v>9789706275998</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C89" s="16">
+        <v>91</v>
+      </c>
+      <c r="C89" s="20">
         <v>20</v>
       </c>
-      <c r="D89" s="16">
+      <c r="D89" s="20">
         <v>60</v>
       </c>
-      <c r="E89" s="16">
+      <c r="E89" s="20">
         <v>36</v>
       </c>
       <c r="F89" s="4">
@@ -4516,15 +4544,15 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B90" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C90" s="16">
-        <v>2</v>
-      </c>
-      <c r="D90" s="16">
+        <v>92</v>
+      </c>
+      <c r="C90" s="20">
+        <v>2</v>
+      </c>
+      <c r="D90" s="20">
         <v>5</v>
       </c>
-      <c r="E90" s="16">
+      <c r="E90" s="20">
         <v>3.5</v>
       </c>
       <c r="F90" s="4">
@@ -4534,26 +4562,26 @@
         <v>1</v>
       </c>
       <c r="H90" s="4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I90" s="4">
         <v>2</v>
       </c>
       <c r="J90" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B91" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C91" s="16">
+        <v>93</v>
+      </c>
+      <c r="C91" s="20">
         <v>4.5</v>
       </c>
-      <c r="D91" s="16">
+      <c r="D91" s="20">
         <v>10</v>
       </c>
-      <c r="E91" s="16">
+      <c r="E91" s="20">
         <v>6.5</v>
       </c>
       <c r="F91" s="4">
@@ -4563,26 +4591,26 @@
         <v>1</v>
       </c>
       <c r="H91" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I91" s="4">
         <v>2</v>
       </c>
       <c r="J91" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B92" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="16">
+        <v>94</v>
+      </c>
+      <c r="C92" s="20">
         <v>3.5</v>
       </c>
-      <c r="D92" s="16">
+      <c r="D92" s="20">
         <v>10</v>
       </c>
-      <c r="E92" s="16">
+      <c r="E92" s="20">
         <v>6.5</v>
       </c>
       <c r="F92" s="4">
@@ -4592,26 +4620,26 @@
         <v>1</v>
       </c>
       <c r="H92" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I92" s="4">
         <v>2</v>
       </c>
       <c r="J92" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B93" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C93" s="16">
+        <v>95</v>
+      </c>
+      <c r="C93" s="20">
         <v>135</v>
       </c>
-      <c r="D93" s="16">
+      <c r="D93" s="20">
         <v>285</v>
       </c>
-      <c r="E93" s="16">
+      <c r="E93" s="20">
         <v>171</v>
       </c>
       <c r="F93" s="4">
@@ -4621,26 +4649,26 @@
         <v>1</v>
       </c>
       <c r="H93" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I93" s="4">
         <v>2</v>
       </c>
       <c r="J93" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B94" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C94" s="16">
+        <v>96</v>
+      </c>
+      <c r="C94" s="20">
         <v>30</v>
       </c>
-      <c r="D94" s="16">
+      <c r="D94" s="20">
         <v>60</v>
       </c>
-      <c r="E94" s="16">
+      <c r="E94" s="20">
         <v>40</v>
       </c>
       <c r="F94" s="4">
@@ -4650,26 +4678,26 @@
         <v>1</v>
       </c>
       <c r="H94" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I94" s="4">
         <v>2</v>
       </c>
       <c r="J94" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B95" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="16">
+        <v>97</v>
+      </c>
+      <c r="C95" s="20">
         <v>110</v>
       </c>
-      <c r="D95" s="16">
+      <c r="D95" s="20">
         <v>220</v>
       </c>
-      <c r="E95" s="16">
+      <c r="E95" s="20">
         <v>132</v>
       </c>
       <c r="F95" s="4">
@@ -4690,15 +4718,15 @@
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B96" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C96" s="16">
+        <v>98</v>
+      </c>
+      <c r="C96" s="20">
         <v>60</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="20">
         <v>150</v>
       </c>
-      <c r="E96" s="16">
+      <c r="E96" s="20">
         <v>90</v>
       </c>
       <c r="F96" s="4">
@@ -4719,15 +4747,15 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C97" s="16">
+        <v>99</v>
+      </c>
+      <c r="C97" s="20">
         <v>280</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="20">
         <v>500</v>
       </c>
-      <c r="E97" s="16">
+      <c r="E97" s="20">
         <v>330</v>
       </c>
       <c r="F97" s="4">
@@ -4748,15 +4776,15 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B98" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="16">
+        <v>100</v>
+      </c>
+      <c r="C98" s="20">
         <v>280</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="20">
         <v>300</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="20">
         <v>280</v>
       </c>
       <c r="F98" s="4">
@@ -4777,15 +4805,15 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B99" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C99" s="16">
+        <v>101</v>
+      </c>
+      <c r="C99" s="20">
         <v>165</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="20">
         <v>250</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="20">
         <v>250</v>
       </c>
       <c r="F99" s="4">
@@ -4806,15 +4834,15 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C100" s="16">
+        <v>102</v>
+      </c>
+      <c r="C100" s="20">
         <v>21.5</v>
       </c>
-      <c r="D100" s="16">
+      <c r="D100" s="20">
         <v>50</v>
       </c>
-      <c r="E100" s="16">
+      <c r="E100" s="20">
         <v>30</v>
       </c>
       <c r="F100" s="4">
@@ -4835,15 +4863,15 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B101" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C101" s="16">
+        <v>103</v>
+      </c>
+      <c r="C101" s="20">
         <v>55</v>
       </c>
-      <c r="D101" s="16">
+      <c r="D101" s="20">
         <v>130</v>
       </c>
-      <c r="E101" s="16">
+      <c r="E101" s="20">
         <v>78</v>
       </c>
       <c r="F101" s="4">
@@ -4853,26 +4881,26 @@
         <v>1</v>
       </c>
       <c r="H101" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I101" s="4">
         <v>2</v>
       </c>
       <c r="J101" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B102" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C102" s="16">
+        <v>104</v>
+      </c>
+      <c r="C102" s="20">
         <v>38</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="20">
         <v>90</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="20">
         <v>54</v>
       </c>
       <c r="F102" s="4">
@@ -4893,15 +4921,15 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B103" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C103" s="16">
+        <v>105</v>
+      </c>
+      <c r="C103" s="20">
         <v>35</v>
       </c>
-      <c r="D103" s="16">
+      <c r="D103" s="20">
         <v>95</v>
       </c>
-      <c r="E103" s="16">
+      <c r="E103" s="20">
         <v>57</v>
       </c>
       <c r="F103" s="4">
@@ -4922,15 +4950,15 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C104" s="16">
+        <v>106</v>
+      </c>
+      <c r="C104" s="20">
         <v>89</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="20">
         <v>150</v>
       </c>
-      <c r="E104" s="16">
+      <c r="E104" s="20">
         <v>100</v>
       </c>
       <c r="F104" s="4">
@@ -4951,18 +4979,18 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="16">
+      <c r="C105" s="20">
         <v>65</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="20">
         <v>400</v>
       </c>
-      <c r="E105" s="16">
+      <c r="E105" s="20">
         <v>180</v>
       </c>
       <c r="F105" s="4">
@@ -4978,20 +5006,20 @@
         <v>2</v>
       </c>
       <c r="J105" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B106" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="16">
+        <v>109</v>
+      </c>
+      <c r="C106" s="20">
         <v>66.5</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="20">
         <v>500</v>
       </c>
-      <c r="E106" s="16">
+      <c r="E106" s="20">
         <v>240</v>
       </c>
       <c r="F106" s="4">
@@ -5012,15 +5040,15 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B107" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="16">
+        <v>110</v>
+      </c>
+      <c r="C107" s="20">
         <v>36</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="20">
         <v>180</v>
       </c>
-      <c r="E107" s="16">
+      <c r="E107" s="20">
         <v>90</v>
       </c>
       <c r="F107" s="4">
@@ -5030,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="H107" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I107" s="4">
         <v>2</v>
       </c>
       <c r="J107" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -5044,15 +5072,15 @@
         <v>605632998109</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="16">
+        <v>111</v>
+      </c>
+      <c r="C108" s="20">
         <v>5.2</v>
       </c>
-      <c r="D108" s="16">
+      <c r="D108" s="20">
         <v>30</v>
       </c>
-      <c r="E108" s="16">
+      <c r="E108" s="20">
         <v>15</v>
       </c>
       <c r="F108" s="4">
@@ -5076,15 +5104,15 @@
         <v>7503010472100</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="16">
+        <v>112</v>
+      </c>
+      <c r="C109" s="20">
         <v>95.5</v>
       </c>
-      <c r="D109" s="16">
+      <c r="D109" s="20">
         <v>220</v>
       </c>
-      <c r="E109" s="16">
+      <c r="E109" s="20">
         <v>132</v>
       </c>
       <c r="F109" s="4">
@@ -5105,18 +5133,18 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="C110" s="16">
+        <v>342</v>
+      </c>
+      <c r="C110" s="20">
         <v>120</v>
       </c>
-      <c r="D110" s="16">
+      <c r="D110" s="20">
         <v>235</v>
       </c>
-      <c r="E110" s="16">
+      <c r="E110" s="20">
         <v>141</v>
       </c>
       <c r="F110" s="4">
@@ -5140,15 +5168,15 @@
         <v>39800110909</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C111" s="16">
+        <v>113</v>
+      </c>
+      <c r="C111" s="20">
         <v>18</v>
       </c>
-      <c r="D111" s="16">
+      <c r="D111" s="20">
         <v>25</v>
       </c>
-      <c r="E111" s="16">
+      <c r="E111" s="20">
         <v>22</v>
       </c>
       <c r="F111" s="4">
@@ -5172,15 +5200,15 @@
         <v>8888021206081</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C112" s="16">
+        <v>114</v>
+      </c>
+      <c r="C112" s="20">
         <v>11.5</v>
       </c>
-      <c r="D112" s="16">
+      <c r="D112" s="20">
         <v>16</v>
       </c>
-      <c r="E112" s="16">
+      <c r="E112" s="20">
         <v>14</v>
       </c>
       <c r="F112" s="4">
@@ -5190,13 +5218,13 @@
         <v>1</v>
       </c>
       <c r="H112" s="4">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I112" s="4">
         <v>2</v>
       </c>
       <c r="J112" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
@@ -5204,15 +5232,15 @@
         <v>8888021206074</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C113" s="16">
+        <v>115</v>
+      </c>
+      <c r="C113" s="20">
         <v>10</v>
       </c>
-      <c r="D113" s="16">
+      <c r="D113" s="20">
         <v>20</v>
       </c>
-      <c r="E113" s="16">
+      <c r="E113" s="20">
         <v>15</v>
       </c>
       <c r="F113" s="4">
@@ -5222,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="H113" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I113" s="4">
         <v>2</v>
@@ -5236,15 +5264,15 @@
         <v>7501037601251</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C114" s="16">
+        <v>116</v>
+      </c>
+      <c r="C114" s="20">
         <v>9</v>
       </c>
-      <c r="D114" s="16">
+      <c r="D114" s="20">
         <v>20</v>
       </c>
-      <c r="E114" s="16">
+      <c r="E114" s="20">
         <v>15</v>
       </c>
       <c r="F114" s="4">
@@ -5268,15 +5296,15 @@
         <v>8999002604755</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C115" s="16">
+        <v>117</v>
+      </c>
+      <c r="C115" s="20">
         <v>10.5</v>
       </c>
-      <c r="D115" s="16">
+      <c r="D115" s="20">
         <v>20</v>
       </c>
-      <c r="E115" s="16">
+      <c r="E115" s="20">
         <v>15</v>
       </c>
       <c r="F115" s="4">
@@ -5286,29 +5314,29 @@
         <v>1</v>
       </c>
       <c r="H115" s="4">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I115" s="4">
         <v>2</v>
       </c>
       <c r="J115" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C116" s="17">
+        <v>121</v>
+      </c>
+      <c r="C116" s="21">
         <v>49</v>
       </c>
-      <c r="D116" s="17">
+      <c r="D116" s="21">
         <v>250</v>
       </c>
-      <c r="E116" s="17">
+      <c r="E116" s="21">
         <v>100</v>
       </c>
       <c r="F116" s="4">
@@ -5318,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="H116" s="12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I116" s="4">
         <v>2</v>
@@ -5329,18 +5357,18 @@
     </row>
     <row r="117" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C117" s="17">
+        <v>122</v>
+      </c>
+      <c r="C117" s="21">
         <v>55</v>
       </c>
-      <c r="D117" s="17">
+      <c r="D117" s="21">
         <v>350</v>
       </c>
-      <c r="E117" s="17">
+      <c r="E117" s="21">
         <v>140</v>
       </c>
       <c r="F117" s="4">
@@ -5350,7 +5378,7 @@
         <v>1</v>
       </c>
       <c r="H117" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" s="4">
         <v>2</v>
@@ -5361,18 +5389,18 @@
     </row>
     <row r="118" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C118" s="17">
+        <v>123</v>
+      </c>
+      <c r="C118" s="21">
         <v>75</v>
       </c>
-      <c r="D118" s="17">
+      <c r="D118" s="21">
         <v>400</v>
       </c>
-      <c r="E118" s="17">
+      <c r="E118" s="21">
         <v>180</v>
       </c>
       <c r="F118" s="4">
@@ -5396,16 +5424,16 @@
         <v>605632283007</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C119" s="16">
+        <v>125</v>
+      </c>
+      <c r="C119" s="20">
         <v>37.799999999999997</v>
       </c>
-      <c r="D119" s="16">
-        <v>175</v>
-      </c>
-      <c r="E119" s="16">
-        <v>88</v>
+      <c r="D119" s="20">
+        <v>180</v>
+      </c>
+      <c r="E119" s="20">
+        <v>95</v>
       </c>
       <c r="F119" s="4">
         <v>0</v>
@@ -5428,15 +5456,15 @@
         <v>605632281003</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C120" s="16">
+        <v>124</v>
+      </c>
+      <c r="C120" s="20">
         <v>23.8</v>
       </c>
-      <c r="D120" s="16">
+      <c r="D120" s="20">
         <v>110</v>
       </c>
-      <c r="E120" s="16">
+      <c r="E120" s="20">
         <v>55</v>
       </c>
       <c r="F120" s="4">
@@ -5446,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="H120" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I120" s="4">
         <v>2</v>
@@ -5457,15 +5485,15 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B121" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="16">
+        <v>126</v>
+      </c>
+      <c r="C121" s="20">
         <v>25</v>
       </c>
-      <c r="D121" s="16">
+      <c r="D121" s="20">
         <v>110</v>
       </c>
-      <c r="E121" s="16">
+      <c r="E121" s="20">
         <v>55</v>
       </c>
       <c r="F121" s="4">
@@ -5475,7 +5503,7 @@
         <v>1</v>
       </c>
       <c r="H121" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I121" s="4">
         <v>2</v>
@@ -5489,16 +5517,16 @@
         <v>6932053556453</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C122" s="16">
+        <v>127</v>
+      </c>
+      <c r="C122" s="20">
         <v>96</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="20">
         <v>500</v>
       </c>
-      <c r="E122" s="16">
-        <v>280</v>
+      <c r="E122" s="20">
+        <v>240</v>
       </c>
       <c r="F122" s="4">
         <v>0</v>
@@ -5521,15 +5549,15 @@
         <v>6970595118289</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C123" s="17">
+        <v>432</v>
+      </c>
+      <c r="C123" s="21">
         <v>67</v>
       </c>
-      <c r="D123" s="17">
-        <v>310</v>
-      </c>
-      <c r="E123" s="17">
+      <c r="D123" s="21">
+        <v>300</v>
+      </c>
+      <c r="E123" s="21">
         <v>160</v>
       </c>
       <c r="F123" s="4">
@@ -5545,20 +5573,20 @@
         <v>2</v>
       </c>
       <c r="J123" s="14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B124" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C124" s="16">
+        <v>128</v>
+      </c>
+      <c r="C124" s="20">
         <v>76</v>
       </c>
-      <c r="D124" s="16">
+      <c r="D124" s="20">
         <v>400</v>
       </c>
-      <c r="E124" s="16">
+      <c r="E124" s="20">
         <v>240</v>
       </c>
       <c r="F124" s="4">
@@ -5568,27 +5596,27 @@
         <v>1</v>
       </c>
       <c r="H124" s="4">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I124" s="4">
         <v>2</v>
       </c>
       <c r="J124" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="13"/>
       <c r="B125" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C125" s="17">
+        <v>129</v>
+      </c>
+      <c r="C125" s="21">
         <v>145</v>
       </c>
-      <c r="D125" s="17">
+      <c r="D125" s="21">
         <v>700</v>
       </c>
-      <c r="E125" s="17">
+      <c r="E125" s="21">
         <v>340</v>
       </c>
       <c r="F125" s="4">
@@ -5609,18 +5637,18 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C126" s="16">
+        <v>131</v>
+      </c>
+      <c r="C126" s="20">
         <v>150</v>
       </c>
-      <c r="D126" s="16">
+      <c r="D126" s="20">
         <v>700</v>
       </c>
-      <c r="E126" s="16">
+      <c r="E126" s="20">
         <v>350</v>
       </c>
       <c r="F126" s="4">
@@ -5641,18 +5669,18 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C127" s="16">
+        <v>133</v>
+      </c>
+      <c r="C127" s="20">
         <v>140</v>
       </c>
-      <c r="D127" s="16">
+      <c r="D127" s="20">
         <v>700</v>
       </c>
-      <c r="E127" s="16">
+      <c r="E127" s="20">
         <v>350</v>
       </c>
       <c r="F127" s="4">
@@ -5673,18 +5701,18 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C128" s="16">
+        <v>135</v>
+      </c>
+      <c r="C128" s="20">
         <v>140</v>
       </c>
-      <c r="D128" s="16">
+      <c r="D128" s="20">
         <v>700</v>
       </c>
-      <c r="E128" s="16">
+      <c r="E128" s="20">
         <v>350</v>
       </c>
       <c r="F128" s="4">
@@ -5705,15 +5733,15 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B129" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C129" s="16">
+        <v>136</v>
+      </c>
+      <c r="C129" s="20">
         <v>150</v>
       </c>
-      <c r="D129" s="16">
+      <c r="D129" s="20">
         <v>850</v>
       </c>
-      <c r="E129" s="16">
+      <c r="E129" s="20">
         <v>450</v>
       </c>
       <c r="F129" s="4">
@@ -5723,7 +5751,7 @@
         <v>1</v>
       </c>
       <c r="H129" s="4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I129" s="4">
         <v>2</v>
@@ -5734,15 +5762,15 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B130" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C130" s="16">
+        <v>137</v>
+      </c>
+      <c r="C130" s="20">
         <v>203</v>
       </c>
-      <c r="D130" s="16">
+      <c r="D130" s="20">
         <v>1200</v>
       </c>
-      <c r="E130" s="16">
+      <c r="E130" s="20">
         <v>600</v>
       </c>
       <c r="F130" s="4">
@@ -5766,15 +5794,15 @@
         <v>605632284066</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C131" s="16">
+        <v>138</v>
+      </c>
+      <c r="C131" s="20">
         <v>25.8</v>
       </c>
-      <c r="D131" s="16">
+      <c r="D131" s="20">
         <v>120</v>
       </c>
-      <c r="E131" s="16">
+      <c r="E131" s="20">
         <v>60</v>
       </c>
       <c r="F131" s="4">
@@ -5798,15 +5826,15 @@
         <v>605632284165</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="C132" s="16">
+        <v>139</v>
+      </c>
+      <c r="C132" s="20">
         <v>25.8</v>
       </c>
-      <c r="D132" s="16">
+      <c r="D132" s="20">
         <v>120</v>
       </c>
-      <c r="E132" s="16">
+      <c r="E132" s="20">
         <v>60</v>
       </c>
       <c r="F132" s="4">
@@ -5816,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="H132" s="4">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I132" s="4">
         <v>2</v>
@@ -5830,15 +5858,15 @@
         <v>6932053565417</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C133" s="16">
+        <v>140</v>
+      </c>
+      <c r="C133" s="20">
         <v>76</v>
       </c>
-      <c r="D133" s="16">
+      <c r="D133" s="20">
         <v>500</v>
       </c>
-      <c r="E133" s="16">
+      <c r="E133" s="20">
         <v>300</v>
       </c>
       <c r="F133" s="4">
@@ -5859,15 +5887,15 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B134" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C134" s="16">
+        <v>141</v>
+      </c>
+      <c r="C134" s="20">
         <v>171</v>
       </c>
-      <c r="D134" s="16">
+      <c r="D134" s="20">
         <v>795</v>
       </c>
-      <c r="E134" s="16">
+      <c r="E134" s="20">
         <v>480</v>
       </c>
       <c r="F134" s="4">
@@ -5888,18 +5916,18 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C135" s="16">
+        <v>143</v>
+      </c>
+      <c r="C135" s="20">
         <v>79</v>
       </c>
-      <c r="D135" s="16">
+      <c r="D135" s="20">
         <v>350</v>
       </c>
-      <c r="E135" s="16">
+      <c r="E135" s="20">
         <v>180</v>
       </c>
       <c r="F135" s="4">
@@ -5923,15 +5951,15 @@
         <v>6959532316100</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C136" s="16">
+        <v>144</v>
+      </c>
+      <c r="C136" s="20">
         <v>121</v>
       </c>
-      <c r="D136" s="16">
+      <c r="D136" s="20">
         <v>320</v>
       </c>
-      <c r="E136" s="16">
+      <c r="E136" s="20">
         <v>192</v>
       </c>
       <c r="F136" s="4">
@@ -5955,15 +5983,15 @@
         <v>710621156003</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C137" s="16">
+        <v>145</v>
+      </c>
+      <c r="C137" s="20">
         <v>60.5</v>
       </c>
-      <c r="D137" s="16">
+      <c r="D137" s="20">
         <v>140</v>
       </c>
-      <c r="E137" s="16">
+      <c r="E137" s="20">
         <v>84</v>
       </c>
       <c r="F137" s="4">
@@ -5987,15 +6015,15 @@
         <v>735380400958</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C138" s="16">
+        <v>146</v>
+      </c>
+      <c r="C138" s="20">
         <v>115</v>
       </c>
-      <c r="D138" s="16">
+      <c r="D138" s="20">
         <v>280</v>
       </c>
-      <c r="E138" s="16">
+      <c r="E138" s="20">
         <v>160</v>
       </c>
       <c r="F138" s="4">
@@ -6019,16 +6047,16 @@
         <v>603912262674</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="16">
+        <v>147</v>
+      </c>
+      <c r="C139" s="20">
         <v>19.5</v>
       </c>
-      <c r="D139" s="16">
+      <c r="D139" s="20">
         <v>50</v>
       </c>
-      <c r="E139" s="16">
-        <v>30</v>
+      <c r="E139" s="20">
+        <v>35</v>
       </c>
       <c r="F139" s="4">
         <v>0</v>
@@ -6051,16 +6079,16 @@
         <v>603912262650</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C140" s="16">
+        <v>148</v>
+      </c>
+      <c r="C140" s="20">
         <v>19.5</v>
       </c>
-      <c r="D140" s="16">
+      <c r="D140" s="20">
         <v>50</v>
       </c>
-      <c r="E140" s="16">
-        <v>30</v>
+      <c r="E140" s="20">
+        <v>35</v>
       </c>
       <c r="F140" s="4">
         <v>0</v>
@@ -6083,16 +6111,16 @@
         <v>603912262667</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C141" s="16">
+        <v>149</v>
+      </c>
+      <c r="C141" s="20">
         <v>19.5</v>
       </c>
-      <c r="D141" s="16">
+      <c r="D141" s="20">
         <v>50</v>
       </c>
-      <c r="E141" s="16">
-        <v>30</v>
+      <c r="E141" s="20">
+        <v>35</v>
       </c>
       <c r="F141" s="4">
         <v>0</v>
@@ -6115,15 +6143,15 @@
         <v>710621151503</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C142" s="16">
+        <v>150</v>
+      </c>
+      <c r="C142" s="20">
         <v>21.92</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D142" s="20">
         <v>50</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="20">
         <v>31</v>
       </c>
       <c r="F142" s="4">
@@ -6133,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="H142" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I142" s="4">
         <v>2</v>
@@ -6147,15 +6175,15 @@
         <v>710621151505</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="16">
+        <v>151</v>
+      </c>
+      <c r="C143" s="20">
         <v>31.85</v>
       </c>
-      <c r="D143" s="16">
+      <c r="D143" s="20">
         <v>75</v>
       </c>
-      <c r="E143" s="16">
+      <c r="E143" s="20">
         <v>45</v>
       </c>
       <c r="F143" s="4">
@@ -6165,7 +6193,7 @@
         <v>1</v>
       </c>
       <c r="H143" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I143" s="4">
         <v>2</v>
@@ -6179,15 +6207,15 @@
         <v>811847013104</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C144" s="16">
+        <v>152</v>
+      </c>
+      <c r="C144" s="20">
         <v>100</v>
       </c>
-      <c r="D144" s="16">
+      <c r="D144" s="20">
         <v>250</v>
       </c>
-      <c r="E144" s="16">
+      <c r="E144" s="20">
         <v>150</v>
       </c>
       <c r="F144" s="4">
@@ -6211,15 +6239,15 @@
         <v>657447096273</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C145" s="16">
+        <v>153</v>
+      </c>
+      <c r="C145" s="20">
         <v>97.5</v>
       </c>
-      <c r="D145" s="16">
+      <c r="D145" s="20">
         <v>230</v>
       </c>
-      <c r="E145" s="16">
+      <c r="E145" s="20">
         <v>140</v>
       </c>
       <c r="F145" s="4">
@@ -6240,18 +6268,18 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C146" s="16">
+        <v>155</v>
+      </c>
+      <c r="C146" s="20">
         <v>55</v>
       </c>
-      <c r="D146" s="16">
+      <c r="D146" s="20">
         <v>255</v>
       </c>
-      <c r="E146" s="16">
+      <c r="E146" s="20">
         <v>127</v>
       </c>
       <c r="F146" s="4">
@@ -6275,15 +6303,15 @@
         <v>603912247589</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C147" s="16">
+        <v>156</v>
+      </c>
+      <c r="C147" s="20">
         <v>93</v>
       </c>
-      <c r="D147" s="16">
+      <c r="D147" s="20">
         <v>250</v>
       </c>
-      <c r="E147" s="16">
+      <c r="E147" s="20">
         <v>130</v>
       </c>
       <c r="F147" s="4">
@@ -6304,18 +6332,18 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="10">
-        <v>603912249996</v>
+        <v>603912247565</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C148" s="16">
+        <v>157</v>
+      </c>
+      <c r="C148" s="20">
         <v>58</v>
       </c>
-      <c r="D148" s="16">
+      <c r="D148" s="20">
         <v>200</v>
       </c>
-      <c r="E148" s="16">
+      <c r="E148" s="20">
         <v>100</v>
       </c>
       <c r="F148" s="4">
@@ -6339,15 +6367,15 @@
         <v>710621156005</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C149" s="16">
+        <v>158</v>
+      </c>
+      <c r="C149" s="20">
         <v>80.849999999999994</v>
       </c>
-      <c r="D149" s="16">
+      <c r="D149" s="20">
         <v>190</v>
       </c>
-      <c r="E149" s="16">
+      <c r="E149" s="20">
         <v>110</v>
       </c>
       <c r="F149" s="4">
@@ -6371,15 +6399,15 @@
         <v>716770071682</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C150" s="16">
+        <v>159</v>
+      </c>
+      <c r="C150" s="20">
         <v>123.48</v>
       </c>
-      <c r="D150" s="16">
+      <c r="D150" s="20">
         <v>290</v>
       </c>
-      <c r="E150" s="16">
+      <c r="E150" s="20">
         <v>175</v>
       </c>
       <c r="F150" s="4">
@@ -6400,18 +6428,18 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C151" s="16">
+        <v>433</v>
+      </c>
+      <c r="C151" s="20">
         <v>7</v>
       </c>
-      <c r="D151" s="16">
+      <c r="D151" s="20">
         <v>60</v>
       </c>
-      <c r="E151" s="16">
+      <c r="E151" s="20">
         <v>30</v>
       </c>
       <c r="F151" s="4">
@@ -6435,15 +6463,15 @@
         <v>7502214983573</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C152" s="16">
+        <v>161</v>
+      </c>
+      <c r="C152" s="20">
         <v>26</v>
       </c>
-      <c r="D152" s="16">
+      <c r="D152" s="20">
         <v>60</v>
       </c>
-      <c r="E152" s="16">
+      <c r="E152" s="20">
         <v>36</v>
       </c>
       <c r="F152" s="4">
@@ -6462,20 +6490,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A153" s="10">
+    <row r="153" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="13">
         <v>7506163801490</v>
       </c>
-      <c r="B153" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C153" s="16">
+      <c r="B153" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C153" s="21">
         <v>20</v>
       </c>
-      <c r="D153" s="16">
+      <c r="D153" s="21">
         <v>60</v>
       </c>
-      <c r="E153" s="16">
+      <c r="E153" s="21">
         <v>36</v>
       </c>
       <c r="F153" s="4">
@@ -6484,13 +6512,13 @@
       <c r="G153" s="4">
         <v>1</v>
       </c>
-      <c r="H153" s="4">
+      <c r="H153" s="12">
         <v>2</v>
       </c>
       <c r="I153" s="4">
         <v>2</v>
       </c>
-      <c r="J153" s="1">
+      <c r="J153" s="14">
         <v>2</v>
       </c>
     </row>
@@ -6499,15 +6527,15 @@
         <v>7502214982811</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C154" s="16">
+        <v>162</v>
+      </c>
+      <c r="C154" s="20">
         <v>26.54</v>
       </c>
-      <c r="D154" s="16">
+      <c r="D154" s="20">
         <v>60</v>
       </c>
-      <c r="E154" s="16">
+      <c r="E154" s="20">
         <v>36</v>
       </c>
       <c r="F154" s="4">
@@ -6517,13 +6545,13 @@
         <v>1</v>
       </c>
       <c r="H154" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I154" s="4">
         <v>2</v>
       </c>
       <c r="J154" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -6531,15 +6559,15 @@
         <v>7502214982828</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C155" s="16">
+        <v>163</v>
+      </c>
+      <c r="C155" s="20">
         <v>61.82</v>
       </c>
-      <c r="D155" s="16">
+      <c r="D155" s="20">
         <v>120</v>
       </c>
-      <c r="E155" s="16">
+      <c r="E155" s="20">
         <v>72</v>
       </c>
       <c r="F155" s="4">
@@ -6563,15 +6591,15 @@
         <v>7502214983962</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" s="16">
+        <v>164</v>
+      </c>
+      <c r="C156" s="20">
         <v>31.61</v>
       </c>
-      <c r="D156" s="16">
+      <c r="D156" s="20">
         <v>60</v>
       </c>
-      <c r="E156" s="16">
+      <c r="E156" s="20">
         <v>36</v>
       </c>
       <c r="F156" s="4">
@@ -6587,7 +6615,7 @@
         <v>2</v>
       </c>
       <c r="J156" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
@@ -6595,15 +6623,15 @@
         <v>7502214985348</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C157" s="16">
+        <v>165</v>
+      </c>
+      <c r="C157" s="20">
         <v>43</v>
       </c>
-      <c r="D157" s="16">
+      <c r="D157" s="20">
         <v>70</v>
       </c>
-      <c r="E157" s="16">
+      <c r="E157" s="20">
         <v>50</v>
       </c>
       <c r="F157" s="4">
@@ -6613,13 +6641,13 @@
         <v>1</v>
       </c>
       <c r="H157" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" s="4">
         <v>2</v>
       </c>
       <c r="J157" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
@@ -6627,15 +6655,15 @@
         <v>7501685170116</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C158" s="16">
+        <v>166</v>
+      </c>
+      <c r="C158" s="20">
         <v>46</v>
       </c>
-      <c r="D158" s="16">
+      <c r="D158" s="20">
         <v>100</v>
       </c>
-      <c r="E158" s="16">
+      <c r="E158" s="20">
         <v>62</v>
       </c>
       <c r="F158" s="4">
@@ -6645,13 +6673,13 @@
         <v>1</v>
       </c>
       <c r="H158" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I158" s="4">
         <v>2</v>
       </c>
       <c r="J158" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -6659,15 +6687,15 @@
         <v>759746000125</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C159" s="16">
+        <v>167</v>
+      </c>
+      <c r="C159" s="20">
         <v>5</v>
       </c>
-      <c r="D159" s="16">
+      <c r="D159" s="20">
         <v>100</v>
       </c>
-      <c r="E159" s="16">
+      <c r="E159" s="20">
         <v>50</v>
       </c>
       <c r="F159" s="4">
@@ -6691,15 +6719,15 @@
         <v>716770004888</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C160" s="16">
+        <v>168</v>
+      </c>
+      <c r="C160" s="20">
         <v>95</v>
       </c>
-      <c r="D160" s="16">
+      <c r="D160" s="20">
         <v>220</v>
       </c>
-      <c r="E160" s="16">
+      <c r="E160" s="20">
         <v>125</v>
       </c>
       <c r="F160" s="4">
@@ -6723,15 +6751,15 @@
         <v>4053856999192</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C161" s="16">
+        <v>169</v>
+      </c>
+      <c r="C161" s="20">
         <v>57.62</v>
       </c>
-      <c r="D161" s="16">
+      <c r="D161" s="20">
         <v>140</v>
       </c>
-      <c r="E161" s="16">
+      <c r="E161" s="20">
         <v>80</v>
       </c>
       <c r="F161" s="4">
@@ -6755,15 +6783,15 @@
         <v>4053856999185</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="C162" s="16">
+        <v>345</v>
+      </c>
+      <c r="C162" s="20">
         <v>57.62</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="20">
         <v>140</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="20">
         <v>80</v>
       </c>
       <c r="F162" s="4">
@@ -6787,15 +6815,15 @@
         <v>319</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C163" s="16">
+        <v>170</v>
+      </c>
+      <c r="C163" s="20">
         <v>49.8</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="20">
         <v>230</v>
       </c>
-      <c r="E163" s="16">
+      <c r="E163" s="20">
         <v>115</v>
       </c>
       <c r="F163" s="4">
@@ -6811,7 +6839,7 @@
         <v>2</v>
       </c>
       <c r="J163" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -6819,15 +6847,15 @@
         <v>285</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C164" s="16">
+        <v>171</v>
+      </c>
+      <c r="C164" s="20">
         <v>66</v>
       </c>
-      <c r="D164" s="16">
+      <c r="D164" s="20">
         <v>300</v>
       </c>
-      <c r="E164" s="16">
+      <c r="E164" s="20">
         <v>140</v>
       </c>
       <c r="F164" s="4">
@@ -6848,18 +6876,18 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C165" s="16">
+        <v>173</v>
+      </c>
+      <c r="C165" s="20">
         <v>57</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="20">
         <v>240</v>
       </c>
-      <c r="E165" s="16">
+      <c r="E165" s="20">
         <v>120</v>
       </c>
       <c r="F165" s="4">
@@ -6869,29 +6897,29 @@
         <v>1</v>
       </c>
       <c r="H165" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I165" s="4">
         <v>2</v>
       </c>
       <c r="J165" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C166" s="16">
+        <v>175</v>
+      </c>
+      <c r="C166" s="20">
         <v>28</v>
       </c>
-      <c r="D166" s="16">
+      <c r="D166" s="20">
         <v>170</v>
       </c>
-      <c r="E166" s="16">
+      <c r="E166" s="20">
         <v>65</v>
       </c>
       <c r="F166" s="4">
@@ -6915,15 +6943,15 @@
         <v>290</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C167" s="16">
+        <v>176</v>
+      </c>
+      <c r="C167" s="20">
         <v>78</v>
       </c>
-      <c r="D167" s="16">
+      <c r="D167" s="20">
         <v>350</v>
       </c>
-      <c r="E167" s="16">
+      <c r="E167" s="20">
         <v>180</v>
       </c>
       <c r="F167" s="4">
@@ -6947,15 +6975,15 @@
         <v>291</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C168" s="16">
+        <v>177</v>
+      </c>
+      <c r="C168" s="20">
         <v>78</v>
       </c>
-      <c r="D168" s="16">
+      <c r="D168" s="20">
         <v>350</v>
       </c>
-      <c r="E168" s="16">
+      <c r="E168" s="20">
         <v>180</v>
       </c>
       <c r="F168" s="4">
@@ -6979,15 +7007,15 @@
         <v>462</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C169" s="16">
+        <v>178</v>
+      </c>
+      <c r="C169" s="20">
         <v>71.8</v>
       </c>
-      <c r="D169" s="16">
+      <c r="D169" s="20">
         <v>320</v>
       </c>
-      <c r="E169" s="16">
+      <c r="E169" s="20">
         <v>166</v>
       </c>
       <c r="F169" s="4">
@@ -7011,15 +7039,15 @@
         <v>879</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C170" s="16">
+        <v>179</v>
+      </c>
+      <c r="C170" s="20">
         <v>88</v>
       </c>
-      <c r="D170" s="16">
+      <c r="D170" s="20">
         <v>400</v>
       </c>
-      <c r="E170" s="16">
+      <c r="E170" s="20">
         <v>204</v>
       </c>
       <c r="F170" s="4">
@@ -7043,15 +7071,15 @@
         <v>871</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C171" s="16">
+        <v>180</v>
+      </c>
+      <c r="C171" s="20">
         <v>88</v>
       </c>
-      <c r="D171" s="16">
+      <c r="D171" s="20">
         <v>400</v>
       </c>
-      <c r="E171" s="16">
+      <c r="E171" s="20">
         <v>204</v>
       </c>
       <c r="F171" s="4">
@@ -7075,15 +7103,15 @@
         <v>533</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C172" s="16">
+        <v>181</v>
+      </c>
+      <c r="C172" s="20">
         <v>105</v>
       </c>
-      <c r="D172" s="16">
+      <c r="D172" s="20">
         <v>450</v>
       </c>
-      <c r="E172" s="16">
+      <c r="E172" s="20">
         <v>243</v>
       </c>
       <c r="F172" s="4">
@@ -7107,15 +7135,15 @@
         <v>5500</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="16">
+        <v>182</v>
+      </c>
+      <c r="C173" s="20">
         <v>140</v>
       </c>
-      <c r="D173" s="16">
+      <c r="D173" s="20">
         <v>500</v>
       </c>
-      <c r="E173" s="16">
+      <c r="E173" s="20">
         <v>280</v>
       </c>
       <c r="F173" s="4">
@@ -7139,15 +7167,15 @@
         <v>293</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C174" s="16">
+        <v>183</v>
+      </c>
+      <c r="C174" s="20">
         <v>39.799999999999997</v>
       </c>
-      <c r="D174" s="16">
+      <c r="D174" s="20">
         <v>200</v>
       </c>
-      <c r="E174" s="16">
+      <c r="E174" s="20">
         <v>120</v>
       </c>
       <c r="F174" s="4">
@@ -7171,15 +7199,15 @@
         <v>877</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C175" s="16">
+        <v>184</v>
+      </c>
+      <c r="C175" s="20">
         <v>67</v>
       </c>
-      <c r="D175" s="16">
+      <c r="D175" s="20">
         <v>270</v>
       </c>
-      <c r="E175" s="16">
+      <c r="E175" s="20">
         <v>134</v>
       </c>
       <c r="F175" s="4">
@@ -7203,15 +7231,15 @@
         <v>5018</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C176" s="16">
+        <v>185</v>
+      </c>
+      <c r="C176" s="20">
         <v>79</v>
       </c>
-      <c r="D176" s="16">
+      <c r="D176" s="20">
         <v>300</v>
       </c>
-      <c r="E176" s="16">
+      <c r="E176" s="20">
         <v>158</v>
       </c>
       <c r="F176" s="4">
@@ -7235,15 +7263,15 @@
         <v>5055</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C177" s="16">
+        <v>186</v>
+      </c>
+      <c r="C177" s="20">
         <v>80</v>
       </c>
-      <c r="D177" s="16">
+      <c r="D177" s="20">
         <v>320</v>
       </c>
-      <c r="E177" s="16">
+      <c r="E177" s="20">
         <v>160</v>
       </c>
       <c r="F177" s="4">
@@ -7253,13 +7281,13 @@
         <v>1</v>
       </c>
       <c r="H177" s="4">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I177" s="4">
         <v>2</v>
       </c>
       <c r="J177" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
@@ -7267,16 +7295,16 @@
         <v>5057</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C178" s="16">
+        <v>187</v>
+      </c>
+      <c r="C178" s="20">
         <v>90</v>
       </c>
-      <c r="D178" s="16">
+      <c r="D178" s="20">
+        <v>350</v>
+      </c>
+      <c r="E178" s="20">
         <v>180</v>
-      </c>
-      <c r="E178" s="16">
-        <v>350</v>
       </c>
       <c r="F178" s="4">
         <v>0</v>
@@ -7299,15 +7327,15 @@
         <v>275</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C179" s="16">
+        <v>188</v>
+      </c>
+      <c r="C179" s="20">
         <v>73</v>
       </c>
-      <c r="D179" s="16">
+      <c r="D179" s="20">
         <v>450</v>
       </c>
-      <c r="E179" s="16">
+      <c r="E179" s="20">
         <v>169</v>
       </c>
       <c r="F179" s="4">
@@ -7331,15 +7359,15 @@
         <v>444</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C180" s="16">
+        <v>189</v>
+      </c>
+      <c r="C180" s="20">
         <v>134</v>
       </c>
-      <c r="D180" s="16">
+      <c r="D180" s="20">
         <v>500</v>
       </c>
-      <c r="E180" s="16">
+      <c r="E180" s="20">
         <v>250</v>
       </c>
       <c r="F180" s="4">
@@ -7363,15 +7391,15 @@
         <v>280</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C181" s="16">
+        <v>190</v>
+      </c>
+      <c r="C181" s="20">
         <v>120</v>
       </c>
-      <c r="D181" s="16">
+      <c r="D181" s="20">
         <v>650</v>
       </c>
-      <c r="E181" s="16">
+      <c r="E181" s="20">
         <v>280</v>
       </c>
       <c r="F181" s="4">
@@ -7381,13 +7409,13 @@
         <v>1</v>
       </c>
       <c r="H181" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I181" s="4">
         <v>2</v>
       </c>
       <c r="J181" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -7395,15 +7423,15 @@
         <v>383</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C182" s="16">
+        <v>191</v>
+      </c>
+      <c r="C182" s="20">
         <v>124</v>
       </c>
-      <c r="D182" s="16">
+      <c r="D182" s="20">
         <v>600</v>
       </c>
-      <c r="E182" s="16">
+      <c r="E182" s="20">
         <v>287</v>
       </c>
       <c r="F182" s="4">
@@ -7427,15 +7455,15 @@
         <v>395</v>
       </c>
       <c r="B183" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C183" s="16">
+        <v>192</v>
+      </c>
+      <c r="C183" s="20">
         <v>136</v>
       </c>
-      <c r="D183" s="16">
+      <c r="D183" s="20">
         <v>600</v>
       </c>
-      <c r="E183" s="16">
+      <c r="E183" s="20">
         <v>290</v>
       </c>
       <c r="F183" s="4">
@@ -7459,16 +7487,16 @@
         <v>452</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C184" s="16">
+        <v>193</v>
+      </c>
+      <c r="C184" s="20">
         <v>148</v>
       </c>
-      <c r="D184" s="16">
+      <c r="D184" s="20">
         <v>650</v>
       </c>
-      <c r="E184" s="16">
-        <v>331</v>
+      <c r="E184" s="20">
+        <v>295</v>
       </c>
       <c r="F184" s="4">
         <v>0</v>
@@ -7491,15 +7519,15 @@
         <v>887</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C185" s="16">
+        <v>194</v>
+      </c>
+      <c r="C185" s="20">
         <v>68</v>
       </c>
-      <c r="D185" s="16">
+      <c r="D185" s="20">
         <v>280</v>
       </c>
-      <c r="E185" s="16">
+      <c r="E185" s="20">
         <v>136</v>
       </c>
       <c r="F185" s="4">
@@ -7523,15 +7551,15 @@
         <v>104</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C186" s="16">
+        <v>195</v>
+      </c>
+      <c r="C186" s="20">
         <v>57.12</v>
       </c>
-      <c r="D186" s="16">
+      <c r="D186" s="20">
         <v>360</v>
       </c>
-      <c r="E186" s="16">
+      <c r="E186" s="20">
         <v>158</v>
       </c>
       <c r="F186" s="4">
@@ -7555,15 +7583,15 @@
         <v>461</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C187" s="16">
+        <v>196</v>
+      </c>
+      <c r="C187" s="20">
         <v>50</v>
       </c>
-      <c r="D187" s="16">
+      <c r="D187" s="20">
         <v>280</v>
       </c>
-      <c r="E187" s="16">
+      <c r="E187" s="20">
         <v>147</v>
       </c>
       <c r="F187" s="4">
@@ -7587,15 +7615,15 @@
         <v>738</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C188" s="16">
+        <v>197</v>
+      </c>
+      <c r="C188" s="20">
         <v>90</v>
       </c>
-      <c r="D188" s="16">
+      <c r="D188" s="20">
         <v>450</v>
       </c>
-      <c r="E188" s="16">
+      <c r="E188" s="20">
         <v>208</v>
       </c>
       <c r="F188" s="4">
@@ -7616,15 +7644,15 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B189" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C189" s="16">
+        <v>198</v>
+      </c>
+      <c r="C189" s="20">
         <v>35</v>
       </c>
-      <c r="D189" s="16">
+      <c r="D189" s="20">
         <v>85</v>
       </c>
-      <c r="E189" s="16">
+      <c r="E189" s="20">
         <v>48</v>
       </c>
       <c r="F189" s="4">
@@ -7648,15 +7676,15 @@
         <v>875</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C190" s="16">
+        <v>199</v>
+      </c>
+      <c r="C190" s="20">
         <v>99.27</v>
       </c>
-      <c r="D190" s="16">
+      <c r="D190" s="20">
         <v>250</v>
       </c>
-      <c r="E190" s="16">
+      <c r="E190" s="20">
         <v>150</v>
       </c>
       <c r="F190" s="4">
@@ -7680,15 +7708,15 @@
         <v>893</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C191" s="16">
+        <v>200</v>
+      </c>
+      <c r="C191" s="20">
         <v>49</v>
       </c>
-      <c r="D191" s="16">
+      <c r="D191" s="20">
         <v>280</v>
       </c>
-      <c r="E191" s="16">
+      <c r="E191" s="20">
         <v>127</v>
       </c>
       <c r="F191" s="4">
@@ -7709,15 +7737,15 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B192" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="C192" s="16">
+        <v>201</v>
+      </c>
+      <c r="C192" s="20">
         <v>125</v>
       </c>
-      <c r="D192" s="16">
+      <c r="D192" s="20">
         <v>900</v>
       </c>
-      <c r="E192" s="16">
+      <c r="E192" s="20">
         <v>425</v>
       </c>
       <c r="F192" s="4">
@@ -7741,15 +7769,15 @@
         <v>6968745632563</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C193" s="16">
+        <v>202</v>
+      </c>
+      <c r="C193" s="20">
         <v>480</v>
       </c>
-      <c r="D193" s="16">
+      <c r="D193" s="20">
         <v>1000</v>
       </c>
-      <c r="E193" s="16">
+      <c r="E193" s="20">
         <v>668</v>
       </c>
       <c r="F193" s="4">
@@ -7759,7 +7787,7 @@
         <v>1</v>
       </c>
       <c r="H193" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" s="4">
         <v>2</v>
@@ -7773,15 +7801,15 @@
         <v>684</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C194" s="16">
+        <v>203</v>
+      </c>
+      <c r="C194" s="20">
         <v>168</v>
       </c>
-      <c r="D194" s="16">
+      <c r="D194" s="20">
         <v>390</v>
       </c>
-      <c r="E194" s="16">
+      <c r="E194" s="20">
         <v>234</v>
       </c>
       <c r="F194" s="4">
@@ -7805,15 +7833,15 @@
         <v>603912750584</v>
       </c>
       <c r="B195" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="C195" s="16">
+        <v>376</v>
+      </c>
+      <c r="C195" s="20">
         <v>280.77999999999997</v>
       </c>
-      <c r="D195" s="16">
+      <c r="D195" s="20">
         <v>300</v>
       </c>
-      <c r="E195" s="16">
+      <c r="E195" s="20">
         <v>300</v>
       </c>
       <c r="F195" s="4">
@@ -7834,18 +7862,18 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C196" s="16">
+        <v>205</v>
+      </c>
+      <c r="C196" s="20">
         <v>129</v>
       </c>
-      <c r="D196" s="16">
+      <c r="D196" s="20">
         <v>300</v>
       </c>
-      <c r="E196" s="16">
+      <c r="E196" s="20">
         <v>180</v>
       </c>
       <c r="F196" s="4">
@@ -7869,15 +7897,15 @@
         <v>603912746549</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C197" s="16">
+        <v>206</v>
+      </c>
+      <c r="C197" s="20">
         <v>330</v>
       </c>
-      <c r="D197" s="16">
+      <c r="D197" s="20">
         <v>700</v>
       </c>
-      <c r="E197" s="16">
+      <c r="E197" s="20">
         <v>420</v>
       </c>
       <c r="F197" s="4">
@@ -7901,15 +7929,15 @@
         <v>782631230307</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C198" s="16">
+        <v>207</v>
+      </c>
+      <c r="C198" s="20">
         <v>280.77999999999997</v>
       </c>
-      <c r="D198" s="16">
+      <c r="D198" s="20">
         <v>650</v>
       </c>
-      <c r="E198" s="16">
+      <c r="E198" s="20">
         <v>455</v>
       </c>
       <c r="F198" s="4">
@@ -7933,15 +7961,15 @@
         <v>782631278224</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C199" s="16">
+        <v>208</v>
+      </c>
+      <c r="C199" s="20">
         <v>294</v>
       </c>
-      <c r="D199" s="16">
+      <c r="D199" s="20">
         <v>750</v>
       </c>
-      <c r="E199" s="16">
+      <c r="E199" s="20">
         <v>409</v>
       </c>
       <c r="F199" s="4">
@@ -7965,15 +7993,15 @@
         <v>605632857161</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C200" s="16">
+        <v>209</v>
+      </c>
+      <c r="C200" s="20">
         <v>228</v>
       </c>
-      <c r="D200" s="16">
+      <c r="D200" s="20">
         <v>530</v>
       </c>
-      <c r="E200" s="16">
+      <c r="E200" s="20">
         <v>228</v>
       </c>
       <c r="F200" s="4">
@@ -7997,15 +8025,15 @@
         <v>847841023085</v>
       </c>
       <c r="B201" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C201" s="16">
+        <v>210</v>
+      </c>
+      <c r="C201" s="20">
         <v>150</v>
       </c>
-      <c r="D201" s="16">
+      <c r="D201" s="20">
         <v>320</v>
       </c>
-      <c r="E201" s="16">
+      <c r="E201" s="20">
         <v>192</v>
       </c>
       <c r="F201" s="4">
@@ -8026,15 +8054,15 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B202" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C202" s="16">
+        <v>211</v>
+      </c>
+      <c r="C202" s="20">
         <v>96</v>
       </c>
-      <c r="D202" s="16">
+      <c r="D202" s="20">
         <v>360</v>
       </c>
-      <c r="E202" s="16">
+      <c r="E202" s="20">
         <v>180</v>
       </c>
       <c r="F202" s="4">
@@ -8058,15 +8086,15 @@
         <v>2013010719754</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C203" s="16">
+        <v>212</v>
+      </c>
+      <c r="C203" s="20">
         <v>65</v>
       </c>
-      <c r="D203" s="16">
+      <c r="D203" s="20">
         <v>150</v>
       </c>
-      <c r="E203" s="16">
+      <c r="E203" s="20">
         <v>90</v>
       </c>
       <c r="F203" s="4">
@@ -8087,15 +8115,15 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B204" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C204" s="16">
+        <v>213</v>
+      </c>
+      <c r="C204" s="20">
         <v>100</v>
       </c>
-      <c r="D204" s="16">
+      <c r="D204" s="20">
         <v>250</v>
       </c>
-      <c r="E204" s="16">
+      <c r="E204" s="20">
         <v>150</v>
       </c>
       <c r="F204" s="4">
@@ -8116,15 +8144,15 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B205" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C205" s="16">
+        <v>214</v>
+      </c>
+      <c r="C205" s="20">
         <v>150</v>
       </c>
-      <c r="D205" s="16">
+      <c r="D205" s="20">
         <v>350</v>
       </c>
-      <c r="E205" s="16">
+      <c r="E205" s="20">
         <v>210</v>
       </c>
       <c r="F205" s="4">
@@ -8148,15 +8176,15 @@
         <v>6970595114892</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C206" s="16">
+        <v>215</v>
+      </c>
+      <c r="C206" s="20">
         <v>178</v>
       </c>
-      <c r="D206" s="16">
+      <c r="D206" s="20">
         <v>900</v>
       </c>
-      <c r="E206" s="16">
+      <c r="E206" s="20">
         <v>400</v>
       </c>
       <c r="F206" s="4">
@@ -8177,17 +8205,17 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B207" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C207" s="20">
+        <v>88</v>
+      </c>
+      <c r="D207" s="20">
+        <v>500</v>
+      </c>
+      <c r="E207" s="20">
         <v>220</v>
       </c>
-      <c r="C207" s="16">
-        <v>88</v>
-      </c>
-      <c r="D207" s="16">
-        <v>500</v>
-      </c>
-      <c r="E207" s="16">
-        <v>220</v>
-      </c>
       <c r="F207" s="4">
         <v>0</v>
       </c>
@@ -8195,7 +8223,7 @@
         <v>1</v>
       </c>
       <c r="H207" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" s="4">
         <v>2</v>
@@ -8206,18 +8234,18 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C208" s="16">
+        <v>218</v>
+      </c>
+      <c r="C208" s="20">
         <v>78</v>
       </c>
-      <c r="D208" s="16">
+      <c r="D208" s="20">
         <v>350</v>
       </c>
-      <c r="E208" s="16">
+      <c r="E208" s="20">
         <v>170</v>
       </c>
       <c r="F208" s="4">
@@ -8241,15 +8269,15 @@
         <v>6932053513227</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C209" s="16">
+        <v>219</v>
+      </c>
+      <c r="C209" s="20">
         <v>117</v>
       </c>
-      <c r="D209" s="16">
+      <c r="D209" s="20">
         <v>700</v>
       </c>
-      <c r="E209" s="16">
+      <c r="E209" s="20">
         <v>420</v>
       </c>
       <c r="F209" s="4">
@@ -8270,15 +8298,15 @@
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B210" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C210" s="16">
+        <v>220</v>
+      </c>
+      <c r="C210" s="20">
         <v>114</v>
       </c>
-      <c r="D210" s="16">
+      <c r="D210" s="20">
         <v>600</v>
       </c>
-      <c r="E210" s="16">
+      <c r="E210" s="20">
         <v>300</v>
       </c>
       <c r="F210" s="4">
@@ -8302,15 +8330,15 @@
         <v>894</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C211" s="16">
+        <v>221</v>
+      </c>
+      <c r="C211" s="20">
         <v>123</v>
       </c>
-      <c r="D211" s="16">
+      <c r="D211" s="20">
         <v>550</v>
       </c>
-      <c r="E211" s="16">
+      <c r="E211" s="20">
         <v>285</v>
       </c>
       <c r="F211" s="4">
@@ -8331,16 +8359,16 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B212" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C212" s="16">
+        <v>222</v>
+      </c>
+      <c r="C212" s="20">
         <v>85</v>
       </c>
-      <c r="D212" s="16">
+      <c r="D212" s="20">
         <v>230</v>
       </c>
-      <c r="E212" s="16">
-        <v>218</v>
+      <c r="E212" s="20">
+        <v>125</v>
       </c>
       <c r="F212" s="4">
         <v>0</v>
@@ -8363,15 +8391,15 @@
         <v>603912103335</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C213" s="16">
+        <v>223</v>
+      </c>
+      <c r="C213" s="20">
         <v>75.86</v>
       </c>
-      <c r="D213" s="16">
+      <c r="D213" s="20">
         <v>170</v>
       </c>
-      <c r="E213" s="16">
+      <c r="E213" s="20">
         <v>105</v>
       </c>
       <c r="F213" s="4">
@@ -8395,15 +8423,15 @@
         <v>603912275131</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C214" s="16">
+        <v>224</v>
+      </c>
+      <c r="C214" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="D214" s="16">
+      <c r="D214" s="20">
         <v>90</v>
       </c>
-      <c r="E214" s="16">
+      <c r="E214" s="20">
         <v>55</v>
       </c>
       <c r="F214" s="4">
@@ -8427,15 +8455,15 @@
         <v>603912274974</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C215" s="16">
+        <v>225</v>
+      </c>
+      <c r="C215" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="D215" s="16">
+      <c r="D215" s="20">
         <v>90</v>
       </c>
-      <c r="E215" s="16">
+      <c r="E215" s="20">
         <v>55</v>
       </c>
       <c r="F215" s="4">
@@ -8459,15 +8487,15 @@
         <v>603912274967</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C216" s="16">
+        <v>333</v>
+      </c>
+      <c r="C216" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="D216" s="16">
+      <c r="D216" s="20">
         <v>90</v>
       </c>
-      <c r="E216" s="16">
+      <c r="E216" s="20">
         <v>55</v>
       </c>
       <c r="F216" s="4">
@@ -8491,15 +8519,15 @@
         <v>603912274981</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="C217" s="16">
+        <v>424</v>
+      </c>
+      <c r="C217" s="20">
         <v>39.200000000000003</v>
       </c>
-      <c r="D217" s="16">
+      <c r="D217" s="20">
         <v>90</v>
       </c>
-      <c r="E217" s="16">
+      <c r="E217" s="20">
         <v>55</v>
       </c>
       <c r="F217" s="4">
@@ -8523,15 +8551,15 @@
         <v>7502214983191</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C218" s="16">
+        <v>226</v>
+      </c>
+      <c r="C218" s="20">
         <v>44.25</v>
       </c>
-      <c r="D218" s="16">
+      <c r="D218" s="20">
         <v>100</v>
       </c>
-      <c r="E218" s="16">
+      <c r="E218" s="20">
         <v>60</v>
       </c>
       <c r="F218" s="4">
@@ -8555,15 +8583,15 @@
         <v>7502214983207</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="C219" s="16">
+        <v>334</v>
+      </c>
+      <c r="C219" s="20">
         <v>44.25</v>
       </c>
-      <c r="D219" s="16">
+      <c r="D219" s="20">
         <v>100</v>
       </c>
-      <c r="E219" s="16">
+      <c r="E219" s="20">
         <v>60</v>
       </c>
       <c r="F219" s="4">
@@ -8587,15 +8615,15 @@
         <v>7502214983153</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C220" s="16">
+        <v>227</v>
+      </c>
+      <c r="C220" s="20">
         <v>44.25</v>
       </c>
-      <c r="D220" s="16">
+      <c r="D220" s="20">
         <v>100</v>
       </c>
-      <c r="E220" s="16">
+      <c r="E220" s="20">
         <v>60</v>
       </c>
       <c r="F220" s="4">
@@ -8619,15 +8647,15 @@
         <v>603912158755</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C221" s="16">
+        <v>228</v>
+      </c>
+      <c r="C221" s="20">
         <v>54.52</v>
       </c>
-      <c r="D221" s="16">
+      <c r="D221" s="20">
         <v>130</v>
       </c>
-      <c r="E221" s="16">
+      <c r="E221" s="20">
         <v>78</v>
       </c>
       <c r="F221" s="4">
@@ -8651,15 +8679,15 @@
         <v>782631287806</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C222" s="16">
+        <v>230</v>
+      </c>
+      <c r="C222" s="20">
         <v>371.5</v>
       </c>
-      <c r="D222" s="16">
+      <c r="D222" s="20">
         <v>870</v>
       </c>
-      <c r="E222" s="16">
+      <c r="E222" s="20">
         <v>520</v>
       </c>
       <c r="F222" s="4">
@@ -8683,15 +8711,15 @@
         <v>782631288704</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C223" s="16">
+        <v>229</v>
+      </c>
+      <c r="C223" s="20">
         <v>315</v>
       </c>
-      <c r="D223" s="16">
+      <c r="D223" s="20">
         <v>750</v>
       </c>
-      <c r="E223" s="16">
+      <c r="E223" s="20">
         <v>438</v>
       </c>
       <c r="F223" s="4">
@@ -8715,15 +8743,15 @@
         <v>3220</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C224" s="16">
+        <v>231</v>
+      </c>
+      <c r="C224" s="20">
         <v>34</v>
       </c>
-      <c r="D224" s="16">
+      <c r="D224" s="20">
         <v>160</v>
       </c>
-      <c r="E224" s="16">
+      <c r="E224" s="20">
         <v>80</v>
       </c>
       <c r="F224" s="4">
@@ -8747,15 +8775,15 @@
         <v>782631175813</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C225" s="16">
+        <v>232</v>
+      </c>
+      <c r="C225" s="20">
         <v>250</v>
       </c>
-      <c r="D225" s="16">
+      <c r="D225" s="20">
         <v>580</v>
       </c>
-      <c r="E225" s="16">
+      <c r="E225" s="20">
         <v>348</v>
       </c>
       <c r="F225" s="4">
@@ -8779,16 +8807,16 @@
         <v>7506163802442</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="C226" s="16">
+        <v>338</v>
+      </c>
+      <c r="C226" s="20">
         <v>11.1</v>
       </c>
-      <c r="D226" s="16">
+      <c r="D226" s="20">
         <v>60</v>
       </c>
-      <c r="E226" s="16">
-        <v>21</v>
+      <c r="E226" s="20">
+        <v>24</v>
       </c>
       <c r="F226" s="4">
         <v>0</v>
@@ -8811,15 +8839,15 @@
         <v>7503010472025</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="C227" s="16">
+        <v>339</v>
+      </c>
+      <c r="C227" s="20">
         <v>29.23</v>
       </c>
-      <c r="D227" s="16">
+      <c r="D227" s="20">
         <v>70</v>
       </c>
-      <c r="E227" s="16">
+      <c r="E227" s="20">
         <v>40</v>
       </c>
       <c r="F227" s="4">
@@ -8829,26 +8857,26 @@
         <v>1</v>
       </c>
       <c r="H227" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" s="4">
         <v>2</v>
       </c>
       <c r="J227" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B228" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C228" s="16">
+        <v>340</v>
+      </c>
+      <c r="C228" s="20">
         <v>67</v>
       </c>
-      <c r="D228" s="16">
+      <c r="D228" s="20">
         <v>160</v>
       </c>
-      <c r="E228" s="16">
+      <c r="E228" s="20">
         <v>93</v>
       </c>
       <c r="F228" s="4">
@@ -8869,15 +8897,15 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B229" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="C229" s="16">
+        <v>341</v>
+      </c>
+      <c r="C229" s="20">
         <v>13</v>
       </c>
-      <c r="D229" s="16">
+      <c r="D229" s="20">
         <v>40</v>
       </c>
-      <c r="E229" s="16">
+      <c r="E229" s="20">
         <v>18</v>
       </c>
       <c r="F229" s="4">
@@ -8901,15 +8929,15 @@
         <v>5006</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C230" s="16">
+        <v>233</v>
+      </c>
+      <c r="C230" s="20">
         <v>46.8</v>
       </c>
-      <c r="D230" s="16">
+      <c r="D230" s="20">
         <v>250</v>
       </c>
-      <c r="E230" s="16">
+      <c r="E230" s="20">
         <v>120</v>
       </c>
       <c r="F230" s="4">
@@ -8933,15 +8961,15 @@
         <v>782631105919</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C231" s="16">
+        <v>234</v>
+      </c>
+      <c r="C231" s="20">
         <v>147</v>
       </c>
-      <c r="D231" s="16">
+      <c r="D231" s="20">
         <v>350</v>
       </c>
-      <c r="E231" s="16">
+      <c r="E231" s="20">
         <v>210</v>
       </c>
       <c r="F231" s="4">
@@ -8965,15 +8993,15 @@
         <v>710</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C232" s="16">
+        <v>235</v>
+      </c>
+      <c r="C232" s="20">
         <v>60</v>
       </c>
-      <c r="D232" s="16">
+      <c r="D232" s="20">
         <v>380</v>
       </c>
-      <c r="E232" s="16">
+      <c r="E232" s="20">
         <v>165</v>
       </c>
       <c r="F232" s="4">
@@ -8989,7 +9017,7 @@
         <v>2</v>
       </c>
       <c r="J232" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -8997,15 +9025,15 @@
         <v>782421242305</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C233" s="16">
+        <v>236</v>
+      </c>
+      <c r="C233" s="20">
         <v>300</v>
       </c>
-      <c r="D233" s="16">
+      <c r="D233" s="20">
         <v>700</v>
       </c>
-      <c r="E233" s="16">
+      <c r="E233" s="20">
         <v>420</v>
       </c>
       <c r="F233" s="4">
@@ -9026,15 +9054,15 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B234" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C234" s="16">
+        <v>237</v>
+      </c>
+      <c r="C234" s="20">
         <v>100</v>
       </c>
-      <c r="D234" s="16">
+      <c r="D234" s="20">
         <v>300</v>
       </c>
-      <c r="E234" s="16">
+      <c r="E234" s="20">
         <v>180</v>
       </c>
       <c r="F234" s="4">
@@ -9058,13 +9086,13 @@
         <v>518</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C235" s="3">
         <v>109</v>
       </c>
       <c r="D235" s="3">
-        <v>505</v>
+        <v>400</v>
       </c>
       <c r="E235" s="3">
         <v>253</v>
@@ -9088,7 +9116,7 @@
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C236" s="3">
         <v>150</v>
@@ -9106,7 +9134,7 @@
         <v>1</v>
       </c>
       <c r="H236" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I236" s="4">
         <v>2</v>
@@ -9120,13 +9148,13 @@
         <v>608</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C237" s="3">
         <v>88</v>
       </c>
       <c r="D237" s="3">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E237" s="3">
         <v>205</v>
@@ -9152,7 +9180,7 @@
         <v>5060365093234</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C238" s="3">
         <v>69</v>
@@ -9170,19 +9198,19 @@
         <v>1</v>
       </c>
       <c r="H238" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I238" s="4">
         <v>2</v>
       </c>
       <c r="J238" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C239" s="3">
         <v>93</v>
@@ -9212,7 +9240,7 @@
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C240" s="3">
         <v>53.8</v>
@@ -9241,10 +9269,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C241" s="3">
         <v>40</v>
@@ -9262,7 +9290,7 @@
         <v>1</v>
       </c>
       <c r="H241" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I241" s="4">
         <v>2</v>
@@ -9276,7 +9304,7 @@
         <v>716770064981</v>
       </c>
       <c r="B242" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C242" s="3">
         <v>97.7</v>
@@ -9308,7 +9336,7 @@
         <v>716770087423</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C243" s="3">
         <v>127.74</v>
@@ -9340,7 +9368,7 @@
         <v>716770087393</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="C244" s="3">
         <v>116</v>
@@ -9372,7 +9400,7 @@
         <v>603912340747</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C245" s="3">
         <v>548</v>
@@ -9404,7 +9432,7 @@
         <v>716770086792</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C246" s="3">
         <v>147</v>
@@ -9436,7 +9464,7 @@
         <v>782631217223</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C247" s="3">
         <v>265</v>
@@ -9466,7 +9494,7 @@
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="4" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C248" s="3">
         <v>160</v>
@@ -9490,13 +9518,13 @@
         <v>2</v>
       </c>
       <c r="J248" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="4" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C249" s="3">
         <v>160</v>
@@ -9520,13 +9548,13 @@
         <v>2</v>
       </c>
       <c r="J249" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="4" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="C250" s="3">
         <v>85</v>
@@ -9556,7 +9584,7 @@
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C251" s="3">
         <v>85</v>
@@ -9586,7 +9614,7 @@
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="4" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C252" s="3">
         <v>45</v>
@@ -9615,10 +9643,10 @@
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C253" s="3">
         <v>60</v>
@@ -9647,10 +9675,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C254" s="3">
         <v>118</v>
@@ -9682,7 +9710,7 @@
         <v>603912349146</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C255" s="3">
         <v>50</v>
@@ -9712,7 +9740,7 @@
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C256" s="3">
         <v>95</v>
@@ -9744,7 +9772,7 @@
         <v>603912741384</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C257" s="3">
         <v>100</v>
@@ -9774,7 +9802,7 @@
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C258" s="3">
         <v>30</v>
@@ -9804,7 +9832,7 @@
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C259" s="3">
         <v>140</v>
@@ -9834,7 +9862,7 @@
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C260" s="3">
         <v>95</v>
@@ -9866,7 +9894,7 @@
         <v>716770011336</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C261" s="3">
         <v>136.43</v>
@@ -9896,7 +9924,7 @@
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C262" s="3">
         <v>270</v>
@@ -9928,7 +9956,7 @@
         <v>6945690399222</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C263" s="3">
         <v>64.5</v>
@@ -9957,10 +9985,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C264" s="3">
         <v>75</v>
@@ -9992,7 +10020,7 @@
         <v>603912187854</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C265" s="3">
         <v>160</v>
@@ -10024,7 +10052,7 @@
         <v>603912119770</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C266" s="3">
         <v>139</v>
@@ -10056,7 +10084,7 @@
         <v>6970595110078</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C267" s="3">
         <v>24</v>
@@ -10088,7 +10116,7 @@
         <v>702730698846</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C268" s="3">
         <v>73</v>
@@ -10120,7 +10148,7 @@
         <v>853858007185</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C269" s="3">
         <v>73</v>
@@ -10152,7 +10180,7 @@
         <v>702730698815</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C270" s="3">
         <v>73</v>
@@ -10184,7 +10212,7 @@
         <v>702730698839</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C271" s="3">
         <v>73</v>
@@ -10202,13 +10230,13 @@
         <v>1</v>
       </c>
       <c r="H271" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I271" s="4">
         <v>2</v>
       </c>
       <c r="J271" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -10216,7 +10244,7 @@
         <v>702730698808</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C272" s="3">
         <v>73</v>
@@ -10248,7 +10276,7 @@
         <v>702730698822</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C273" s="3">
         <v>73</v>
@@ -10280,7 +10308,7 @@
         <v>782631220704</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C274" s="3">
         <v>100</v>
@@ -10312,7 +10340,7 @@
         <v>603912312430</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C275" s="3">
         <v>225</v>
@@ -10344,7 +10372,7 @@
         <v>716770004901</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="C276" s="3">
         <v>79</v>
@@ -10376,7 +10404,7 @@
         <v>716770090454</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C277" s="3">
         <v>438</v>
@@ -10408,7 +10436,7 @@
         <v>759746900128</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C278" s="3">
         <v>35</v>
@@ -10440,7 +10468,7 @@
         <v>818631030484</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C279" s="3">
         <v>257</v>
@@ -10472,7 +10500,7 @@
         <v>603912296839</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="C280" s="3">
         <v>165</v>
@@ -10504,7 +10532,7 @@
         <v>603912296945</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C281" s="3">
         <v>225</v>
@@ -10536,7 +10564,7 @@
         <v>603912296822</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C282" s="3">
         <v>250</v>
@@ -10568,7 +10596,7 @@
         <v>603912296754</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C283" s="3">
         <v>337</v>
@@ -10600,7 +10628,7 @@
         <v>782631284102</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C284" s="3">
         <v>282</v>
@@ -10632,7 +10660,7 @@
         <v>603912340716</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="C285" s="3">
         <v>374</v>
@@ -10664,7 +10692,7 @@
         <v>603912753929</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C286" s="3">
         <v>709</v>
@@ -10694,7 +10722,7 @@
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="4" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C287" s="3">
         <v>118</v>
@@ -10712,19 +10740,19 @@
         <v>1</v>
       </c>
       <c r="H287" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I287" s="4">
         <v>2</v>
       </c>
       <c r="J287" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="4" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C288" s="3">
         <v>170</v>
@@ -10742,21 +10770,21 @@
         <v>1</v>
       </c>
       <c r="H288" s="1">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I288" s="4">
         <v>2</v>
       </c>
       <c r="J288" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B289" s="4" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C289" s="3">
         <v>33</v>
@@ -10774,19 +10802,19 @@
         <v>1</v>
       </c>
       <c r="H289" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I289" s="4">
         <v>2</v>
       </c>
       <c r="J289" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="4" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C290" s="3">
         <v>20</v>
@@ -10815,10 +10843,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C291" s="3">
         <v>35</v>
@@ -10850,7 +10878,7 @@
         <v>638258780049</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C292" s="3">
         <v>100</v>
@@ -10868,13 +10896,13 @@
         <v>1</v>
       </c>
       <c r="H292" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I292" s="4">
         <v>2</v>
       </c>
       <c r="J292" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -10882,7 +10910,7 @@
         <v>51021314195</v>
       </c>
       <c r="B293" s="4" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C293" s="3">
         <v>152</v>
@@ -10912,7 +10940,7 @@
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="4" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C294" s="3">
         <v>35</v>
@@ -10942,7 +10970,7 @@
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C295" s="3">
         <v>16</v>
@@ -10960,7 +10988,7 @@
         <v>1</v>
       </c>
       <c r="H295" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" s="4">
         <v>2</v>
@@ -10972,7 +11000,7 @@
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="4" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C296" s="3">
         <v>45</v>
@@ -11002,7 +11030,7 @@
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="4" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C297" s="3">
         <v>30</v>
@@ -11026,13 +11054,13 @@
         <v>2</v>
       </c>
       <c r="J297" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="4" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C298" s="3">
         <v>36</v>
@@ -11062,7 +11090,7 @@
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="4" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C299" s="3">
         <v>36</v>
@@ -11092,7 +11120,7 @@
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C300" s="3">
         <v>100</v>
@@ -11116,7 +11144,7 @@
         <v>2</v>
       </c>
       <c r="J300" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -11124,7 +11152,7 @@
         <v>811847017003</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C301" s="3">
         <v>88</v>
@@ -11154,7 +11182,7 @@
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="4" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C302" s="3">
         <v>25</v>
@@ -11184,7 +11212,7 @@
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="4" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C303" s="3">
         <v>26</v>
@@ -11214,7 +11242,7 @@
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C304" s="3">
         <v>12</v>
@@ -11244,7 +11272,7 @@
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="4" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C305" s="3">
         <v>40</v>
@@ -11276,7 +11304,7 @@
         <v>782631269727</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C306" s="3">
         <v>115</v>
@@ -11308,7 +11336,7 @@
         <v>853858007086</v>
       </c>
       <c r="B307" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="C307" s="3">
         <v>27.5</v>
@@ -11338,7 +11366,7 @@
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C308" s="3">
         <v>75</v>
@@ -11367,10 +11395,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="C309" s="3">
         <v>45</v>
@@ -11402,7 +11430,7 @@
         <v>603912320183</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C310" s="3">
         <v>75</v>
@@ -11434,7 +11462,7 @@
         <v>603912320213</v>
       </c>
       <c r="B311" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C311" s="3">
         <v>85.26</v>
@@ -11466,7 +11494,7 @@
         <v>818631029938</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C312" s="3">
         <v>470.4</v>
@@ -11495,10 +11523,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C313" s="3">
         <v>48</v>
@@ -11527,10 +11555,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C314" s="3">
         <v>69.989999999999995</v>
@@ -11548,7 +11576,7 @@
         <v>1</v>
       </c>
       <c r="H314" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" s="4">
         <v>2</v>
@@ -11562,7 +11590,7 @@
         <v>716770090386</v>
       </c>
       <c r="B315" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C315" s="3">
         <v>174</v>
@@ -11591,10 +11619,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C316" s="3">
         <v>74</v>
@@ -11623,10 +11651,10 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B317" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C317" s="3">
         <v>15</v>
@@ -11656,7 +11684,7 @@
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C318" s="3">
         <v>19</v>
@@ -11688,7 +11716,7 @@
         <v>4065593830997</v>
       </c>
       <c r="B319" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C319" s="3">
         <v>95</v>
@@ -11720,7 +11748,7 @@
         <v>716770060143</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C320" s="3">
         <v>103</v>
@@ -11752,7 +11780,7 @@
         <v>716770025067</v>
       </c>
       <c r="B321" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C321" s="3">
         <v>155</v>
@@ -11784,7 +11812,7 @@
         <v>603912362787</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C322" s="3">
         <v>348</v>
@@ -11813,10 +11841,10 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B323" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C323" s="3">
         <v>69</v>
@@ -11845,15 +11873,15 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B324" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="C324" s="16">
+        <v>347</v>
+      </c>
+      <c r="C324" s="20">
         <v>170</v>
       </c>
-      <c r="D324" s="16">
+      <c r="D324" s="20">
         <v>420</v>
       </c>
-      <c r="E324" s="16">
+      <c r="E324" s="20">
         <v>252</v>
       </c>
       <c r="F324" s="4">
@@ -11877,15 +11905,15 @@
         <v>782631247114</v>
       </c>
       <c r="B325" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C325" s="16">
+        <v>348</v>
+      </c>
+      <c r="C325" s="20">
         <v>252</v>
       </c>
-      <c r="D325" s="16">
+      <c r="D325" s="20">
         <v>700</v>
       </c>
-      <c r="E325" s="16">
+      <c r="E325" s="20">
         <v>420</v>
       </c>
       <c r="F325" s="4">
@@ -11909,15 +11937,15 @@
         <v>716770084613</v>
       </c>
       <c r="B326" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="C326" s="16">
+        <v>349</v>
+      </c>
+      <c r="C326" s="20">
         <v>199</v>
       </c>
-      <c r="D326" s="16">
+      <c r="D326" s="20">
         <v>450</v>
       </c>
-      <c r="E326" s="16">
+      <c r="E326" s="20">
         <v>276</v>
       </c>
       <c r="F326" s="4">
@@ -11941,15 +11969,15 @@
         <v>603912340433</v>
       </c>
       <c r="B327" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="C327" s="16">
+        <v>350</v>
+      </c>
+      <c r="C327" s="20">
         <v>510</v>
       </c>
-      <c r="D327" s="16">
+      <c r="D327" s="20">
         <v>1200</v>
       </c>
-      <c r="E327" s="16">
+      <c r="E327" s="20">
         <v>720</v>
       </c>
       <c r="F327" s="4">
@@ -11973,15 +12001,15 @@
         <v>716770004130</v>
       </c>
       <c r="B328" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="C328" s="16">
+        <v>351</v>
+      </c>
+      <c r="C328" s="20">
         <v>106</v>
       </c>
-      <c r="D328" s="16">
+      <c r="D328" s="20">
         <v>245</v>
       </c>
-      <c r="E328" s="16">
+      <c r="E328" s="20">
         <v>129</v>
       </c>
       <c r="F328" s="4">
@@ -12002,18 +12030,18 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B329" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="C329" s="16">
+        <v>353</v>
+      </c>
+      <c r="C329" s="20">
         <v>132</v>
       </c>
-      <c r="D329" s="16">
+      <c r="D329" s="20">
         <v>300</v>
       </c>
-      <c r="E329" s="16">
+      <c r="E329" s="20">
         <v>180</v>
       </c>
       <c r="F329" s="4">
@@ -12034,18 +12062,18 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B330" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="C330" s="16">
+        <v>355</v>
+      </c>
+      <c r="C330" s="20">
         <v>129</v>
       </c>
-      <c r="D330" s="16">
+      <c r="D330" s="20">
         <v>300</v>
       </c>
-      <c r="E330" s="16">
+      <c r="E330" s="20">
         <v>180</v>
       </c>
       <c r="F330" s="4">
@@ -12066,18 +12094,18 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B331" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C331" s="16">
+        <v>357</v>
+      </c>
+      <c r="C331" s="20">
         <v>132</v>
       </c>
-      <c r="D331" s="16">
+      <c r="D331" s="20">
         <v>300</v>
       </c>
-      <c r="E331" s="16">
+      <c r="E331" s="20">
         <v>180</v>
       </c>
       <c r="F331" s="4">
@@ -12098,15 +12126,15 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B332" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="C332" s="16">
+        <v>358</v>
+      </c>
+      <c r="C332" s="20">
         <v>115</v>
       </c>
-      <c r="D332" s="16">
+      <c r="D332" s="20">
         <v>285</v>
       </c>
-      <c r="E332" s="16">
+      <c r="E332" s="20">
         <v>171</v>
       </c>
       <c r="F332" s="4">
@@ -12127,18 +12155,18 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B333" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="C333" s="16">
+        <v>360</v>
+      </c>
+      <c r="C333" s="20">
         <v>59</v>
       </c>
-      <c r="D333" s="16">
+      <c r="D333" s="20">
         <v>150</v>
       </c>
-      <c r="E333" s="16">
+      <c r="E333" s="20">
         <v>90</v>
       </c>
       <c r="F333" s="4">
@@ -12159,15 +12187,15 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B334" s="4" t="s">
-        <v>366</v>
-      </c>
-      <c r="C334" s="16">
+        <v>361</v>
+      </c>
+      <c r="C334" s="20">
         <v>60</v>
       </c>
-      <c r="D334" s="16">
+      <c r="D334" s="20">
         <v>200</v>
       </c>
-      <c r="E334" s="16">
+      <c r="E334" s="20">
         <v>95</v>
       </c>
       <c r="F334" s="4">
@@ -12183,7 +12211,7 @@
         <v>2</v>
       </c>
       <c r="J334" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -12191,15 +12219,15 @@
         <v>716770087409</v>
       </c>
       <c r="B335" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="C335" s="16">
+        <v>362</v>
+      </c>
+      <c r="C335" s="20">
         <v>127</v>
       </c>
-      <c r="D335" s="16">
+      <c r="D335" s="20">
         <v>300</v>
       </c>
-      <c r="E335" s="16">
+      <c r="E335" s="20">
         <v>180</v>
       </c>
       <c r="F335" s="4">
@@ -12223,15 +12251,15 @@
         <v>692150500005</v>
       </c>
       <c r="B336" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C336" s="16">
+        <v>363</v>
+      </c>
+      <c r="C336" s="20">
         <v>140</v>
       </c>
-      <c r="D336" s="16">
+      <c r="D336" s="20">
         <v>350</v>
       </c>
-      <c r="E336" s="16">
+      <c r="E336" s="20">
         <v>210</v>
       </c>
       <c r="F336" s="4">
@@ -12255,15 +12283,15 @@
         <v>782421016951</v>
       </c>
       <c r="B337" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="C337" s="16">
+        <v>364</v>
+      </c>
+      <c r="C337" s="20">
         <v>136</v>
       </c>
-      <c r="D337" s="16">
+      <c r="D337" s="20">
         <v>315</v>
       </c>
-      <c r="E337" s="16">
+      <c r="E337" s="20">
         <v>189</v>
       </c>
       <c r="F337" s="4">
@@ -12287,15 +12315,15 @@
         <v>603912342291</v>
       </c>
       <c r="B338" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="C338" s="16">
+        <v>365</v>
+      </c>
+      <c r="C338" s="20">
         <v>153</v>
       </c>
-      <c r="D338" s="16">
+      <c r="D338" s="20">
         <v>360</v>
       </c>
-      <c r="E338" s="16">
+      <c r="E338" s="20">
         <v>216</v>
       </c>
       <c r="F338" s="4">
@@ -12319,15 +12347,15 @@
         <v>702730682968</v>
       </c>
       <c r="B339" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C339" s="16">
+        <v>366</v>
+      </c>
+      <c r="C339" s="20">
         <v>145</v>
       </c>
-      <c r="D339" s="16">
+      <c r="D339" s="20">
         <v>330</v>
       </c>
-      <c r="E339" s="16">
+      <c r="E339" s="20">
         <v>198</v>
       </c>
       <c r="F339" s="4">
@@ -12351,15 +12379,15 @@
         <v>710621156002</v>
       </c>
       <c r="B340" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="C340" s="16">
+        <v>367</v>
+      </c>
+      <c r="C340" s="20">
         <v>73.5</v>
       </c>
-      <c r="D340" s="16">
+      <c r="D340" s="20">
         <v>170</v>
       </c>
-      <c r="E340" s="16">
+      <c r="E340" s="20">
         <v>102</v>
       </c>
       <c r="F340" s="4">
@@ -12369,13 +12397,13 @@
         <v>1</v>
       </c>
       <c r="H340" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I340" s="4">
         <v>2</v>
       </c>
       <c r="J340" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -12383,15 +12411,15 @@
         <v>818631029983</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>373</v>
-      </c>
-      <c r="C341" s="16">
+        <v>368</v>
+      </c>
+      <c r="C341" s="20">
         <v>235</v>
       </c>
-      <c r="D341" s="16">
+      <c r="D341" s="20">
         <v>550</v>
       </c>
-      <c r="E341" s="16">
+      <c r="E341" s="20">
         <v>330</v>
       </c>
       <c r="F341" s="4">
@@ -12415,15 +12443,15 @@
         <v>116</v>
       </c>
       <c r="B342" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="C342" s="16">
+        <v>369</v>
+      </c>
+      <c r="C342" s="20">
         <v>66</v>
       </c>
-      <c r="D342" s="16">
+      <c r="D342" s="20">
         <v>80</v>
       </c>
-      <c r="E342" s="16">
+      <c r="E342" s="20">
         <v>80</v>
       </c>
       <c r="F342" s="4">
@@ -12433,13 +12461,13 @@
         <v>1</v>
       </c>
       <c r="H342" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" s="4">
         <v>2</v>
       </c>
       <c r="J342" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -12447,15 +12475,15 @@
         <v>603912236002</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="C343" s="16">
+        <v>370</v>
+      </c>
+      <c r="C343" s="20">
         <v>225</v>
       </c>
-      <c r="D343" s="16">
+      <c r="D343" s="20">
         <v>550</v>
       </c>
-      <c r="E343" s="16">
+      <c r="E343" s="20">
         <v>330</v>
       </c>
       <c r="F343" s="4">
@@ -12479,15 +12507,15 @@
         <v>603912312461</v>
       </c>
       <c r="B344" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C344" s="16">
+        <v>371</v>
+      </c>
+      <c r="C344" s="20">
         <v>400</v>
       </c>
-      <c r="D344" s="16">
+      <c r="D344" s="20">
         <v>400</v>
       </c>
-      <c r="E344" s="16">
+      <c r="E344" s="20">
         <v>400</v>
       </c>
       <c r="F344" s="4">
@@ -12511,15 +12539,15 @@
         <v>603912136685</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C345" s="16">
+        <v>372</v>
+      </c>
+      <c r="C345" s="20">
         <v>70</v>
       </c>
-      <c r="D345" s="16">
+      <c r="D345" s="20">
         <v>160</v>
       </c>
-      <c r="E345" s="16">
+      <c r="E345" s="20">
         <v>96</v>
       </c>
       <c r="F345" s="4">
@@ -12540,15 +12568,15 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B346" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="C346" s="16">
+        <v>373</v>
+      </c>
+      <c r="C346" s="20">
         <v>130</v>
       </c>
-      <c r="D346" s="16">
+      <c r="D346" s="20">
         <v>325</v>
       </c>
-      <c r="E346" s="16">
+      <c r="E346" s="20">
         <v>195</v>
       </c>
       <c r="F346" s="4">
@@ -12572,15 +12600,15 @@
         <v>603912153156</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C347" s="16">
+        <v>374</v>
+      </c>
+      <c r="C347" s="20">
         <v>100</v>
       </c>
-      <c r="D347" s="16">
+      <c r="D347" s="20">
         <v>250</v>
       </c>
-      <c r="E347" s="16">
+      <c r="E347" s="20">
         <v>148</v>
       </c>
       <c r="F347" s="4">
@@ -12604,15 +12632,15 @@
         <v>603912750591</v>
       </c>
       <c r="B348" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="C348" s="16">
+        <v>375</v>
+      </c>
+      <c r="C348" s="20">
         <v>280.77999999999997</v>
       </c>
-      <c r="D348" s="16">
+      <c r="D348" s="20">
         <v>300</v>
       </c>
-      <c r="E348" s="16">
+      <c r="E348" s="20">
         <v>300</v>
       </c>
       <c r="F348" s="4">
@@ -12636,15 +12664,15 @@
         <v>782631165210</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C349" s="16">
+        <v>377</v>
+      </c>
+      <c r="C349" s="20">
         <v>210</v>
       </c>
-      <c r="D349" s="16">
+      <c r="D349" s="20">
         <v>500</v>
       </c>
-      <c r="E349" s="16">
+      <c r="E349" s="20">
         <v>300</v>
       </c>
       <c r="F349" s="4">
@@ -12668,15 +12696,15 @@
         <v>6970025950816</v>
       </c>
       <c r="B350" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C350" s="16">
+        <v>378</v>
+      </c>
+      <c r="C350" s="20">
         <v>100</v>
       </c>
-      <c r="D350" s="16">
+      <c r="D350" s="20">
         <v>250</v>
       </c>
-      <c r="E350" s="16">
+      <c r="E350" s="20">
         <v>150</v>
       </c>
       <c r="F350" s="4">
@@ -12700,15 +12728,15 @@
         <v>782631263800</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="C351" s="16">
+        <v>379</v>
+      </c>
+      <c r="C351" s="20">
         <v>135</v>
       </c>
-      <c r="D351" s="16">
+      <c r="D351" s="20">
         <v>315</v>
       </c>
-      <c r="E351" s="16">
+      <c r="E351" s="20">
         <v>189</v>
       </c>
       <c r="F351" s="4">
@@ -12732,15 +12760,15 @@
         <v>603912747867</v>
       </c>
       <c r="B352" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="C352" s="16">
+        <v>380</v>
+      </c>
+      <c r="C352" s="20">
         <v>83</v>
       </c>
-      <c r="D352" s="16">
+      <c r="D352" s="20">
         <v>175</v>
       </c>
-      <c r="E352" s="16">
+      <c r="E352" s="20">
         <v>105</v>
       </c>
       <c r="F352" s="4">
@@ -12764,15 +12792,15 @@
         <v>710621151504</v>
       </c>
       <c r="B353" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="C353" s="16">
+        <v>381</v>
+      </c>
+      <c r="C353" s="20">
         <v>28.4</v>
       </c>
-      <c r="D353" s="16">
+      <c r="D353" s="20">
         <v>80</v>
       </c>
-      <c r="E353" s="16">
+      <c r="E353" s="20">
         <v>48</v>
       </c>
       <c r="F353" s="4">
@@ -12788,7 +12816,7 @@
         <v>2</v>
       </c>
       <c r="J353" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -12796,15 +12824,15 @@
         <v>710621156004</v>
       </c>
       <c r="B354" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="C354" s="16">
+        <v>423</v>
+      </c>
+      <c r="C354" s="20">
         <v>71.5</v>
       </c>
-      <c r="D354" s="16">
+      <c r="D354" s="20">
         <v>165</v>
       </c>
-      <c r="E354" s="16">
+      <c r="E354" s="20">
         <v>100</v>
       </c>
       <c r="F354" s="4">
@@ -12828,15 +12856,15 @@
         <v>848631011015</v>
       </c>
       <c r="B355" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="C355" s="16">
+        <v>382</v>
+      </c>
+      <c r="C355" s="20">
         <v>120</v>
       </c>
-      <c r="D355" s="16">
+      <c r="D355" s="20">
         <v>280</v>
       </c>
-      <c r="E355" s="16">
+      <c r="E355" s="20">
         <v>168</v>
       </c>
       <c r="F355" s="4">
@@ -12860,15 +12888,15 @@
         <v>603912128512</v>
       </c>
       <c r="B356" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="C356" s="16">
+        <v>383</v>
+      </c>
+      <c r="C356" s="20">
         <v>58</v>
       </c>
-      <c r="D356" s="16">
+      <c r="D356" s="20">
         <v>150</v>
       </c>
-      <c r="E356" s="16">
+      <c r="E356" s="20">
         <v>90</v>
       </c>
       <c r="F356" s="4">
@@ -12878,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="H356" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" s="4">
         <v>2</v>
@@ -12892,15 +12920,15 @@
         <v>7506163802244</v>
       </c>
       <c r="B357" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="C357" s="16">
+        <v>412</v>
+      </c>
+      <c r="C357" s="20">
         <v>42</v>
       </c>
-      <c r="D357" s="16">
+      <c r="D357" s="20">
         <v>100</v>
       </c>
-      <c r="E357" s="16">
+      <c r="E357" s="20">
         <v>60</v>
       </c>
       <c r="F357" s="4">
@@ -12924,15 +12952,15 @@
         <v>237</v>
       </c>
       <c r="B358" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C358" s="16">
+        <v>384</v>
+      </c>
+      <c r="C358" s="20">
         <v>40</v>
       </c>
-      <c r="D358" s="16">
+      <c r="D358" s="20">
         <v>100</v>
       </c>
-      <c r="E358" s="16">
+      <c r="E358" s="20">
         <v>60</v>
       </c>
       <c r="F358" s="4">
@@ -12948,7 +12976,7 @@
         <v>2</v>
       </c>
       <c r="J358" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -12956,15 +12984,15 @@
         <v>236</v>
       </c>
       <c r="B359" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C359" s="16">
+        <v>385</v>
+      </c>
+      <c r="C359" s="20">
         <v>40</v>
       </c>
-      <c r="D359" s="16">
+      <c r="D359" s="20">
         <v>100</v>
       </c>
-      <c r="E359" s="16">
+      <c r="E359" s="20">
         <v>60</v>
       </c>
       <c r="F359" s="4">
@@ -12985,18 +13013,18 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B360" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="C360" s="16">
+        <v>387</v>
+      </c>
+      <c r="C360" s="20">
         <v>48</v>
       </c>
-      <c r="D360" s="16">
+      <c r="D360" s="20">
         <v>140</v>
       </c>
-      <c r="E360" s="16">
+      <c r="E360" s="20">
         <v>73</v>
       </c>
       <c r="F360" s="4">
@@ -13006,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="H360" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" s="4">
         <v>2</v>
@@ -13017,15 +13045,15 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B361" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="C361" s="16">
+        <v>388</v>
+      </c>
+      <c r="C361" s="20">
         <v>35</v>
       </c>
-      <c r="D361" s="16">
+      <c r="D361" s="20">
         <v>90</v>
       </c>
-      <c r="E361" s="16">
+      <c r="E361" s="20">
         <v>54</v>
       </c>
       <c r="F361" s="4">
@@ -13046,15 +13074,15 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B362" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="C362" s="16">
+        <v>389</v>
+      </c>
+      <c r="C362" s="20">
         <v>32</v>
       </c>
-      <c r="D362" s="16">
+      <c r="D362" s="20">
         <v>80</v>
       </c>
-      <c r="E362" s="16">
+      <c r="E362" s="20">
         <v>45</v>
       </c>
       <c r="F362" s="4">
@@ -13070,20 +13098,20 @@
         <v>2</v>
       </c>
       <c r="J362" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B363" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="C363" s="16">
+        <v>390</v>
+      </c>
+      <c r="C363" s="20">
         <v>22</v>
       </c>
-      <c r="D363" s="16">
+      <c r="D363" s="20">
         <v>55</v>
       </c>
-      <c r="E363" s="16">
+      <c r="E363" s="20">
         <v>33</v>
       </c>
       <c r="F363" s="4">
@@ -13104,15 +13132,15 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B364" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C364" s="16">
+        <v>391</v>
+      </c>
+      <c r="C364" s="20">
         <v>35</v>
       </c>
-      <c r="D364" s="16">
+      <c r="D364" s="20">
         <v>85</v>
       </c>
-      <c r="E364" s="16">
+      <c r="E364" s="20">
         <v>51</v>
       </c>
       <c r="F364" s="4">
@@ -13128,20 +13156,20 @@
         <v>2</v>
       </c>
       <c r="J364" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B365" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="C365" s="16">
+        <v>392</v>
+      </c>
+      <c r="C365" s="20">
         <v>55</v>
       </c>
-      <c r="D365" s="16">
+      <c r="D365" s="20">
         <v>220</v>
       </c>
-      <c r="E365" s="16">
+      <c r="E365" s="20">
         <v>115</v>
       </c>
       <c r="F365" s="4">
@@ -13165,15 +13193,15 @@
         <v>51021314294</v>
       </c>
       <c r="B366" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="C366" s="16">
+        <v>393</v>
+      </c>
+      <c r="C366" s="20">
         <v>146</v>
       </c>
-      <c r="D366" s="16">
+      <c r="D366" s="20">
         <v>340</v>
       </c>
-      <c r="E366" s="16">
+      <c r="E366" s="20">
         <v>204</v>
       </c>
       <c r="F366" s="4">
@@ -13194,18 +13222,18 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B367" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="C367" s="16">
+        <v>395</v>
+      </c>
+      <c r="C367" s="20">
         <v>9</v>
       </c>
-      <c r="D367" s="16">
+      <c r="D367" s="20">
         <v>30</v>
       </c>
-      <c r="E367" s="16">
+      <c r="E367" s="20">
         <v>16</v>
       </c>
       <c r="F367" s="4">
@@ -13226,15 +13254,15 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B368" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="C368" s="16">
+        <v>396</v>
+      </c>
+      <c r="C368" s="20">
         <v>55</v>
       </c>
-      <c r="D368" s="16">
+      <c r="D368" s="20">
         <v>130</v>
       </c>
-      <c r="E368" s="16">
+      <c r="E368" s="20">
         <v>78</v>
       </c>
       <c r="F368" s="4">
@@ -13255,15 +13283,15 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B369" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="C369" s="16">
+        <v>397</v>
+      </c>
+      <c r="C369" s="20">
         <v>43</v>
       </c>
-      <c r="D369" s="16">
+      <c r="D369" s="20">
         <v>95</v>
       </c>
-      <c r="E369" s="16">
+      <c r="E369" s="20">
         <v>57</v>
       </c>
       <c r="F369" s="4">
@@ -13284,15 +13312,15 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B370" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="C370" s="16">
+        <v>398</v>
+      </c>
+      <c r="C370" s="20">
         <v>35</v>
       </c>
-      <c r="D370" s="16">
+      <c r="D370" s="20">
         <v>80</v>
       </c>
-      <c r="E370" s="16">
+      <c r="E370" s="20">
         <v>48</v>
       </c>
       <c r="F370" s="4">
@@ -13313,15 +13341,15 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B371" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="C371" s="16">
+        <v>399</v>
+      </c>
+      <c r="C371" s="20">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D371" s="16">
+      <c r="D371" s="20">
         <v>10</v>
       </c>
-      <c r="E371" s="16">
+      <c r="E371" s="20">
         <v>6.5</v>
       </c>
       <c r="F371" s="4">
@@ -13342,18 +13370,18 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B372" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C372" s="16">
+        <v>312</v>
+      </c>
+      <c r="C372" s="20">
         <v>34</v>
       </c>
-      <c r="D372" s="16">
+      <c r="D372" s="20">
         <v>120</v>
       </c>
-      <c r="E372" s="16">
+      <c r="E372" s="20">
         <v>60</v>
       </c>
       <c r="F372" s="4">
@@ -13374,18 +13402,18 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B373" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C373" s="16">
+        <v>402</v>
+      </c>
+      <c r="C373" s="20">
         <v>43</v>
       </c>
-      <c r="D373" s="16">
+      <c r="D373" s="20">
         <v>230</v>
       </c>
-      <c r="E373" s="16">
+      <c r="E373" s="20">
         <v>85</v>
       </c>
       <c r="F373" s="4">
@@ -13401,20 +13429,20 @@
         <v>2</v>
       </c>
       <c r="J373" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B374" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="C374" s="16">
+        <v>401</v>
+      </c>
+      <c r="C374" s="20">
         <v>85</v>
       </c>
-      <c r="D374" s="16">
+      <c r="D374" s="20">
         <v>230</v>
       </c>
-      <c r="E374" s="16">
+      <c r="E374" s="20">
         <v>138</v>
       </c>
       <c r="F374" s="4">
@@ -13435,15 +13463,15 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B375" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C375" s="16">
+        <v>404</v>
+      </c>
+      <c r="C375" s="20">
         <v>170</v>
       </c>
-      <c r="D375" s="16">
+      <c r="D375" s="20">
         <v>400</v>
       </c>
-      <c r="E375" s="16">
+      <c r="E375" s="20">
         <v>236</v>
       </c>
       <c r="F375" s="4">
@@ -13464,18 +13492,18 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B376" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="C376" s="16">
+        <v>406</v>
+      </c>
+      <c r="C376" s="20">
         <v>182</v>
       </c>
-      <c r="D376" s="16">
+      <c r="D376" s="20">
         <v>400</v>
       </c>
-      <c r="E376" s="16">
+      <c r="E376" s="20">
         <v>228</v>
       </c>
       <c r="F376" s="4">
@@ -13496,15 +13524,15 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B377" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="C377" s="16">
+        <v>407</v>
+      </c>
+      <c r="C377" s="20">
         <v>69</v>
       </c>
-      <c r="D377" s="16">
+      <c r="D377" s="20">
         <v>160</v>
       </c>
-      <c r="E377" s="16">
+      <c r="E377" s="20">
         <v>96</v>
       </c>
       <c r="F377" s="4">
@@ -13514,26 +13542,26 @@
         <v>1</v>
       </c>
       <c r="H377" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I377" s="4">
         <v>2</v>
       </c>
       <c r="J377" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B378" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="C378" s="16">
+        <v>408</v>
+      </c>
+      <c r="C378" s="20">
         <v>20</v>
       </c>
-      <c r="D378" s="16">
+      <c r="D378" s="20">
         <v>50</v>
       </c>
-      <c r="E378" s="16">
+      <c r="E378" s="20">
         <v>30</v>
       </c>
       <c r="F378" s="4">
@@ -13554,18 +13582,18 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B379" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="C379" s="16">
+        <v>410</v>
+      </c>
+      <c r="C379" s="20">
         <v>62</v>
       </c>
-      <c r="D379" s="16">
+      <c r="D379" s="20">
         <v>300</v>
       </c>
-      <c r="E379" s="16">
+      <c r="E379" s="20">
         <v>175</v>
       </c>
       <c r="F379" s="4">
@@ -13589,15 +13617,15 @@
         <v>7503014959539</v>
       </c>
       <c r="B380" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="C380" s="16">
+        <v>411</v>
+      </c>
+      <c r="C380" s="20">
         <v>40</v>
       </c>
-      <c r="D380" s="16">
+      <c r="D380" s="20">
         <v>100</v>
       </c>
-      <c r="E380" s="16">
+      <c r="E380" s="20">
         <v>58</v>
       </c>
       <c r="F380" s="4">
@@ -13618,15 +13646,15 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B381" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="C381" s="16">
+        <v>414</v>
+      </c>
+      <c r="C381" s="20">
         <v>30</v>
       </c>
-      <c r="D381" s="16">
+      <c r="D381" s="20">
         <v>60</v>
       </c>
-      <c r="E381" s="16">
+      <c r="E381" s="20">
         <v>36</v>
       </c>
       <c r="F381" s="4">
@@ -13650,15 +13678,15 @@
         <v>7503016608282</v>
       </c>
       <c r="B382" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="C382" s="16">
+        <v>415</v>
+      </c>
+      <c r="C382" s="20">
         <v>30</v>
       </c>
-      <c r="D382" s="16">
+      <c r="D382" s="20">
         <v>70</v>
       </c>
-      <c r="E382" s="16">
+      <c r="E382" s="20">
         <v>42</v>
       </c>
       <c r="F382" s="4">
@@ -13668,13 +13696,13 @@
         <v>1</v>
       </c>
       <c r="H382" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I382" s="4">
         <v>2</v>
       </c>
       <c r="J382" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
@@ -13682,15 +13710,15 @@
         <v>650240009655</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="C383" s="16">
+        <v>416</v>
+      </c>
+      <c r="C383" s="20">
         <v>30</v>
       </c>
-      <c r="D383" s="16">
+      <c r="D383" s="20">
         <v>100</v>
       </c>
-      <c r="E383" s="16">
+      <c r="E383" s="20">
         <v>42</v>
       </c>
       <c r="F383" s="4">
@@ -13714,15 +13742,15 @@
         <v>603912255904</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="C384" s="16">
+        <v>417</v>
+      </c>
+      <c r="C384" s="20">
         <v>114.87</v>
       </c>
-      <c r="D384" s="16">
+      <c r="D384" s="20">
         <v>250</v>
       </c>
-      <c r="E384" s="16">
+      <c r="E384" s="20">
         <v>150</v>
       </c>
       <c r="F384" s="4">
@@ -13743,15 +13771,15 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B385" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C385" s="16">
+        <v>418</v>
+      </c>
+      <c r="C385" s="20">
         <v>36</v>
       </c>
-      <c r="D385" s="16">
+      <c r="D385" s="20">
         <v>100</v>
       </c>
-      <c r="E385" s="16">
+      <c r="E385" s="20">
         <v>50</v>
       </c>
       <c r="F385" s="4">
@@ -13772,15 +13800,15 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B386" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="C386" s="16">
+        <v>419</v>
+      </c>
+      <c r="C386" s="20">
         <v>11.6</v>
       </c>
-      <c r="D386" s="16">
+      <c r="D386" s="20">
         <v>40</v>
       </c>
-      <c r="E386" s="16">
+      <c r="E386" s="20">
         <v>24</v>
       </c>
       <c r="F386" s="4">
@@ -13801,15 +13829,15 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B387" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C387" s="16">
+        <v>420</v>
+      </c>
+      <c r="C387" s="20">
         <v>113.79</v>
       </c>
-      <c r="D387" s="16">
+      <c r="D387" s="20">
         <v>265</v>
       </c>
-      <c r="E387" s="16">
+      <c r="E387" s="20">
         <v>160</v>
       </c>
       <c r="F387" s="4">
@@ -13819,7 +13847,7 @@
         <v>1</v>
       </c>
       <c r="H387" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I387" s="4">
         <v>2</v>
@@ -13833,15 +13861,15 @@
         <v>710621156001</v>
       </c>
       <c r="B388" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="C388" s="16">
+        <v>421</v>
+      </c>
+      <c r="C388" s="20">
         <v>71.5</v>
       </c>
-      <c r="D388" s="16">
+      <c r="D388" s="20">
         <v>165</v>
       </c>
-      <c r="E388" s="16">
+      <c r="E388" s="20">
         <v>100</v>
       </c>
       <c r="F388" s="4">
@@ -13865,23 +13893,198 @@
         <v>710621151501</v>
       </c>
       <c r="B389" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="C389" s="16">
+        <v>422</v>
+      </c>
+      <c r="C389" s="20">
         <v>28.98</v>
       </c>
-      <c r="D389" s="16">
+      <c r="D389" s="20">
         <v>70</v>
       </c>
-      <c r="E389" s="16">
+      <c r="E389" s="20">
         <v>42</v>
       </c>
       <c r="F389" s="4">
         <v>0</v>
+      </c>
+      <c r="G389" s="4">
+        <v>1</v>
+      </c>
+      <c r="H389" s="4">
+        <v>30</v>
+      </c>
+      <c r="I389" s="4">
+        <v>2</v>
+      </c>
+      <c r="J389" s="1">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>427</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5">
+        <v>60</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5">
+        <v>30</v>
+      </c>
+      <c r="D3" s="5">
+        <v>60</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>30</v>
+      </c>
+      <c r="D4" s="5">
+        <v>60</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5">
+        <v>60</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <v>60</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5">
+        <v>60</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5">
+        <v>60</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="16">
+        <f>SUM(D2:D21)</f>
+        <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/web/uploads/inven.xlsx
+++ b/web/uploads/inven.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodsoft\Desktop\inventario\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simplePos\web\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1736,8 +1736,8 @@
   <dimension ref="A1:J389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L13" sqref="L13"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
